--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\Reorganized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04917C2-918E-4517-92D4-5D8B4E825D37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="23400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap rail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>Bane</t>
   </si>
@@ -217,6 +217,21 @@
   <si>
     <t>Biogas</t>
   </si>
+  <si>
+    <t>Ledetid</t>
+  </si>
+  <si>
+    <t>Leadtime</t>
+  </si>
+  <si>
+    <t>LeadtimeCombi</t>
+  </si>
+  <si>
+    <t>LeadtimeTimber</t>
+  </si>
+  <si>
+    <t>UPDATE LEDETID, den er nå ikke avhengig av distansen</t>
+  </si>
 </sst>
 </file>
 
@@ -226,11 +241,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,56 +407,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +676,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2059,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W998"/>
+  <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2113,7 @@
     <col min="24" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>43</v>
       </c>
@@ -2112,7 +2135,9 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="J1" s="36" t="s">
         <v>46</v>
       </c>
@@ -2134,6 +2159,9 @@
       <c r="P1" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="Q1" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
@@ -2149,8 +2177,14 @@
       <c r="W1" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2173,7 +2207,9 @@
         <f>G14</f>
         <v>226666666.66666666</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
       <c r="J2" s="40" t="s">
         <v>29</v>
       </c>
@@ -2195,6 +2231,9 @@
       <c r="P2" s="12">
         <v>3300000000</v>
       </c>
+      <c r="Q2" s="43">
+        <v>5</v>
+      </c>
       <c r="S2" s="34" t="s">
         <v>28</v>
       </c>
@@ -2210,8 +2249,14 @@
       <c r="W2" s="4">
         <v>120000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2234,7 +2279,9 @@
         <f>G14</f>
         <v>226666666.66666666</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
       <c r="J3" s="38" t="s">
         <v>29</v>
       </c>
@@ -2258,6 +2305,9 @@
         <f>1500000000+375000000</f>
         <v>1875000000</v>
       </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
       <c r="S3" s="34" t="s">
         <v>31</v>
       </c>
@@ -2273,8 +2323,14 @@
       <c r="W3" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2296,7 +2352,9 @@
       <c r="G4" s="4">
         <v>289000000</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
       <c r="J4" s="35" t="s">
         <v>30</v>
       </c>
@@ -2318,6 +2376,9 @@
       <c r="P4" s="12">
         <v>500000000</v>
       </c>
+      <c r="Q4" s="43">
+        <v>5</v>
+      </c>
       <c r="S4" s="34" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2394,14 @@
       <c r="W4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2356,7 +2423,9 @@
       <c r="G5" s="4">
         <v>275000000</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
       <c r="S5" s="34" t="s">
         <v>32</v>
       </c>
@@ -2372,8 +2441,14 @@
       <c r="W5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2395,7 +2470,9 @@
       <c r="G6" s="9">
         <v>100000000</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
       <c r="S6" s="34" t="s">
         <v>33</v>
       </c>
@@ -2411,8 +2488,14 @@
       <c r="W6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2434,7 +2517,9 @@
       <c r="G7" s="4">
         <v>275000000</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
       <c r="S7" s="34" t="s">
         <v>29</v>
       </c>
@@ -2450,8 +2535,14 @@
       <c r="W7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2473,7 +2564,9 @@
       <c r="G8" s="4">
         <v>430000000</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
       <c r="S8" s="34" t="s">
         <v>34</v>
       </c>
@@ -2489,8 +2582,14 @@
       <c r="W8" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2512,7 +2611,9 @@
       <c r="G9" s="10">
         <v>500000000</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
       <c r="S9" s="34" t="s">
         <v>30</v>
       </c>
@@ -2528,8 +2629,14 @@
       <c r="W9" s="4">
         <v>300000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2551,7 +2658,9 @@
       <c r="G10" s="4">
         <v>927000000</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
       <c r="S10" s="34" t="s">
         <v>41</v>
       </c>
@@ -2567,8 +2676,14 @@
       <c r="W10" s="4">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2590,7 +2705,9 @@
       <c r="G11" s="9">
         <v>100000000</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
       <c r="S11" s="34" t="s">
         <v>36</v>
       </c>
@@ -2606,8 +2723,14 @@
       <c r="W11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="25">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2629,9 +2752,11 @@
       <c r="G12" s="4">
         <v>927000000</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2653,9 +2778,11 @@
       <c r="G13" s="4">
         <v>113000000000</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2678,9 +2805,11 @@
         <f>680000000/3</f>
         <v>226666666.66666666</v>
       </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2702,9 +2831,11 @@
       <c r="G15" s="19">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -4889,7 +5020,7 @@
   <dimension ref="B1:K997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4923,6 +5054,9 @@
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F1" s="36" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
@@ -4937,6 +5071,9 @@
       <c r="E2">
         <v>523021000</v>
       </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
       <c r="G2" s="19"/>
       <c r="K2" s="19"/>
     </row>
@@ -4953,6 +5090,9 @@
       <c r="E3">
         <v>1030229000</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
@@ -4967,6 +5107,9 @@
       <c r="E4">
         <v>260408000</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
@@ -4981,6 +5124,9 @@
       <c r="E5">
         <v>614315000</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
@@ -4995,6 +5141,9 @@
       <c r="E6">
         <v>2685461000</v>
       </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
@@ -5009,6 +5158,9 @@
       <c r="E7">
         <v>491148000</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
@@ -5023,6 +5175,9 @@
       <c r="E8">
         <v>209400000</v>
       </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
@@ -5037,6 +5192,9 @@
       <c r="E9">
         <v>1416610000</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
@@ -5050,6 +5208,9 @@
       </c>
       <c r="E10">
         <v>255092000</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10" s="25"/>
       <c r="K10" s="25"/>
@@ -6049,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788103D-4203-4CBA-AFEE-D82DB11621B2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,7 +6224,7 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>44</v>
       </c>
@@ -6079,8 +6240,11 @@
       <c r="E1" s="42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>55</v>
       </c>
@@ -6096,8 +6260,14 @@
       <c r="E2" s="42">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -6113,8 +6283,11 @@
       <c r="E3" s="42">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>55</v>
       </c>
@@ -6129,6 +6302,9 @@
       </c>
       <c r="E4" s="42">
         <v>20000000</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04917C2-918E-4517-92D4-5D8B4E825D37}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4B6C97-67D6-47AA-8F65-303331111FBB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="23400" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="22710" windowHeight="23400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap rail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>Bane</t>
   </si>
@@ -231,6 +231,36 @@
   </si>
   <si>
     <t>UPDATE LEDETID, den er nå ikke avhengig av distansen</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>DETTE BURDE VÆRE NARVIK -&gt; UPDATE</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>no boundaries on terminal capacity</t>
+  </si>
+  <si>
+    <t>UPDATE!</t>
+  </si>
+  <si>
+    <t>burde gå til Narvik</t>
+  </si>
+  <si>
+    <t>introduce extra node in middle</t>
+  </si>
+  <si>
+    <t>Meråkerbanen2</t>
+  </si>
+  <si>
+    <t>ToNarvik</t>
+  </si>
+  <si>
+    <t>EuropaBanen</t>
   </si>
 </sst>
 </file>
@@ -241,11 +271,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,6 +423,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,57 +450,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,6 +518,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -686,15 +735,15 @@
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -709,403 +758,516 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>1250000</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>6365000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>380000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4">
         <v>1250000</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>475000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>1500000</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>1425000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>1600000</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>1377500</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>250000</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>285000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>1600000</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>1330000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>650000</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>1780300</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>1000000</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>1785000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
         <v>800000</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>56000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4">
         <v>250000</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4">
         <v>950000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="4">
         <v>1250000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>250000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="19">
+        <v>250000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4">
+        <v>950000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2084,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2276,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2129,7 +2291,7 @@
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2138,7 +2300,7 @@
       <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2153,34 +2315,34 @@
       <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>60</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2191,10 +2353,10 @@
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4">
@@ -2208,33 +2370,33 @@
         <v>226666666.66666666</v>
       </c>
       <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="J2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="36">
         <v>1</v>
       </c>
       <c r="N2" s="3">
         <v>729</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>14000000000</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>3300000000</v>
       </c>
-      <c r="Q2" s="43">
-        <v>5</v>
-      </c>
-      <c r="S2" s="34" t="s">
+      <c r="Q2" s="42">
+        <v>6</v>
+      </c>
+      <c r="S2" s="33" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="4">
@@ -2249,10 +2411,10 @@
       <c r="W2" s="4">
         <v>120000000</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="24">
         <v>3</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2263,10 +2425,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4">
@@ -2280,35 +2442,35 @@
         <v>226666666.66666666</v>
       </c>
       <c r="H3" s="4">
-        <v>5</v>
-      </c>
-      <c r="J3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="36">
         <v>2</v>
       </c>
       <c r="N3" s="3">
         <v>382</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <f>6500000000+1600000000</f>
         <v>8100000000</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <f>1500000000+375000000</f>
         <v>1875000000</v>
       </c>
       <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="S3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="33" t="s">
         <v>31</v>
       </c>
       <c r="T3" s="4">
@@ -2317,16 +2479,16 @@
       <c r="U3" s="4">
         <v>210600000</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="12">
         <v>0</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="12">
         <v>0</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="24">
         <v>3</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2337,10 +2499,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4">
@@ -2353,33 +2515,33 @@
         <v>289000000</v>
       </c>
       <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <v>1</v>
       </c>
       <c r="N4" s="3">
         <v>115</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>2200000000</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>500000000</v>
       </c>
-      <c r="Q4" s="43">
-        <v>5</v>
-      </c>
-      <c r="S4" s="34" t="s">
+      <c r="Q4" s="42">
+        <v>6</v>
+      </c>
+      <c r="S4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="T4" s="4">
@@ -2388,16 +2550,16 @@
       <c r="U4" s="4">
         <v>526500000</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <v>0</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4" s="24">
         <v>3</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2408,10 +2570,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="4">
@@ -2424,9 +2586,9 @@
         <v>275000000</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="33" t="s">
         <v>32</v>
       </c>
       <c r="T5" s="4">
@@ -2435,16 +2597,16 @@
       <c r="U5" s="4">
         <v>526500000</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <v>0</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="12">
         <v>0</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="24">
         <v>3</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2455,25 +2617,25 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>250000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>500000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>100000000</v>
       </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="34" t="s">
+      <c r="H6" s="4">
+        <v>8</v>
+      </c>
+      <c r="S6" s="33" t="s">
         <v>33</v>
       </c>
       <c r="T6" s="4">
@@ -2482,16 +2644,16 @@
       <c r="U6" s="4">
         <v>210600000</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="12">
         <v>0</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="12">
         <v>0</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6" s="24">
         <v>3</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2499,13 +2661,13 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4">
@@ -2518,9 +2680,9 @@
         <v>275000000</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="33" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="4">
@@ -2529,16 +2691,16 @@
       <c r="U7" s="4">
         <v>526500000</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>0</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <v>0</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7" s="24">
         <v>3</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2549,10 +2711,10 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4">
@@ -2565,9 +2727,9 @@
         <v>430000000</v>
       </c>
       <c r="H8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="33" t="s">
         <v>34</v>
       </c>
       <c r="T8" s="4">
@@ -2576,16 +2738,16 @@
       <c r="U8" s="4">
         <v>526500000</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>0</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="12">
         <v>0</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="24">
         <v>3</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Y8" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2596,10 +2758,10 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4">
@@ -2608,13 +2770,13 @@
       <c r="F9" s="4">
         <v>1500000</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>500000000</v>
       </c>
       <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="4">
@@ -2629,10 +2791,10 @@
       <c r="W9" s="4">
         <v>300000000</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9" s="24">
         <v>3</v>
       </c>
-      <c r="Y9" s="25">
+      <c r="Y9" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2643,10 +2805,10 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
@@ -2659,9 +2821,9 @@
         <v>927000000</v>
       </c>
       <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="S10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="T10" s="4">
@@ -2676,10 +2838,10 @@
       <c r="W10" s="4">
         <v>30000000</v>
       </c>
-      <c r="X10" s="25">
+      <c r="X10" s="24">
         <v>3</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2690,25 +2852,25 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4">
         <v>250000</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>500000</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>100000000</v>
       </c>
       <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="S11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>36</v>
       </c>
       <c r="T11" s="4">
@@ -2717,16 +2879,16 @@
       <c r="U11" s="4">
         <v>210600000</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="12">
         <v>0</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="12">
         <v>0</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="24">
         <v>3</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Y11" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2737,10 +2899,10 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4">
@@ -2753,20 +2915,20 @@
         <v>927000000</v>
       </c>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="4">
@@ -2789,50 +2951,50 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>150000</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>1400000</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>680000000/3</f>
         <v>226666666.66666666</v>
       </c>
       <c r="H14" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>250000</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2841,39 +3003,39 @@
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2885,10 +3047,10 @@
     <row r="30" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -2901,43 +3063,43 @@
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -2957,8 +3119,8 @@
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3928,7 +4090,7 @@
   <dimension ref="B1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C2:C10"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3950,75 +4112,75 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>19498000</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>38407000</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>9708000</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>22902000</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>100114000</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>18310000</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>7806000</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>52811000</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>9510000</v>
       </c>
     </row>
@@ -5054,12 +5216,12 @@
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -5074,11 +5236,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C3">
@@ -5095,7 +5257,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C4">
@@ -5112,7 +5274,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C5">
@@ -5129,7 +5291,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C6">
@@ -5146,7 +5308,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C7">
@@ -5163,7 +5325,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -5180,7 +5342,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C9">
@@ -5197,7 +5359,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C10">
@@ -5212,8 +5374,8 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6213,7 +6375,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6225,19 +6387,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
@@ -6245,19 +6407,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>150</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>360</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>40000000</v>
       </c>
       <c r="F2">
@@ -6268,19 +6430,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>100</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>10</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>2500000</v>
       </c>
       <c r="F3">
@@ -6288,19 +6450,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>300</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>180</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>20000000</v>
       </c>
       <c r="F4">

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4B6C97-67D6-47AA-8F65-303331111FBB}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F913E53B-EB0B-4412-9B10-7E3D53B57437}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="22710" windowHeight="23400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap rail" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>LeadtimeTimber</t>
   </si>
   <si>
-    <t>UPDATE LEDETID, den er nå ikke avhengig av distansen</t>
-  </si>
-  <si>
     <t>Europa</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>EuropaBanen</t>
+  </si>
+  <si>
+    <t>UPDATE LEDETID, den er nå ikke avhengig av distansen, elns</t>
   </si>
 </sst>
 </file>
@@ -520,10 +520,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1028,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
         <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,7 +1108,7 @@
         <v>1250000</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="4">
         <v>5000000</v>
@@ -1121,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
         <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1153,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>29</v>
@@ -1165,10 +1161,10 @@
         <v>250000</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="13">
@@ -1180,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>13</v>
@@ -1192,10 +1188,10 @@
         <v>950000</v>
       </c>
       <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,19 +1199,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>2000000</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2366,7 @@
         <v>226666666.66666666</v>
       </c>
       <c r="H2" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>29</v>
@@ -2412,10 +2408,10 @@
         <v>120000000</v>
       </c>
       <c r="X2" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2438,7 @@
         <v>226666666.66666666</v>
       </c>
       <c r="H3" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>29</v>
@@ -2486,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2515,7 +2511,7 @@
         <v>289000000</v>
       </c>
       <c r="H4" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>30</v>
@@ -2557,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2586,7 +2582,7 @@
         <v>275000000</v>
       </c>
       <c r="H5" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>32</v>
@@ -2604,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,7 +2629,7 @@
         <v>100000000</v>
       </c>
       <c r="H6" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>33</v>
@@ -2651,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y6" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2676,7 @@
         <v>275000000</v>
       </c>
       <c r="H7" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>29</v>
@@ -2698,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2723,7 @@
         <v>430000000</v>
       </c>
       <c r="H8" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>34</v>
@@ -2745,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2774,7 +2770,7 @@
         <v>500000000</v>
       </c>
       <c r="H9" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S9" s="33" t="s">
         <v>30</v>
@@ -2792,10 +2788,10 @@
         <v>300000000</v>
       </c>
       <c r="X9" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2817,7 @@
         <v>927000000</v>
       </c>
       <c r="H10" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S10" s="33" t="s">
         <v>41</v>
@@ -2839,10 +2835,10 @@
         <v>30000000</v>
       </c>
       <c r="X10" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,7 +2864,7 @@
         <v>100000000</v>
       </c>
       <c r="H11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>36</v>
@@ -2886,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,7 +2911,7 @@
         <v>927000000</v>
       </c>
       <c r="H12" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2941,7 +2937,7 @@
         <v>113000000000</v>
       </c>
       <c r="H13" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,7 +2964,7 @@
         <v>226666666.66666666</v>
       </c>
       <c r="H14" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4090,7 +4086,7 @@
   <dimension ref="B1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5182,7 +5178,7 @@
   <dimension ref="B1:K997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5234,7 +5230,7 @@
         <v>523021000</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="18"/>
       <c r="K2" s="18"/>
@@ -5253,7 +5249,7 @@
         <v>1030229000</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,7 +5266,7 @@
         <v>260408000</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5283,7 @@
         <v>614315000</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5304,7 +5300,7 @@
         <v>2685461000</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5317,7 @@
         <v>491148000</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,7 +5334,7 @@
         <v>209400000</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5355,7 +5351,7 @@
         <v>1416610000</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5368,7 @@
         <v>255092000</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="24"/>
       <c r="K10" s="24"/>
@@ -6374,8 +6370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788103D-4203-4CBA-AFEE-D82DB11621B2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,10 +6419,10 @@
         <v>40000000</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6446,7 +6442,7 @@
         <v>2500000</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,7 +6462,7 @@
         <v>20000000</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F913E53B-EB0B-4412-9B10-7E3D53B57437}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F78F8E-6067-450B-A363-7D0DAA7A8610}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
   <si>
     <t>Bane</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>UPDATE LEDETID, den er nå ikke avhengig av distansen, elns</t>
+  </si>
+  <si>
+    <t>KostnadBase</t>
   </si>
 </sst>
 </file>
@@ -2240,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y998"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2255,23 +2258,23 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="8.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
@@ -2296,53 +2299,57 @@
       <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="L1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2362,59 +2369,64 @@
         <v>1400000</v>
       </c>
       <c r="G2" s="4">
-        <f>G14</f>
-        <v>226666666.66666666</v>
+        <f>I2/2</f>
+        <v>113333333.33333333</v>
       </c>
       <c r="H2" s="4">
         <v>10</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="4">
+        <f>I14</f>
+        <v>226666666.66666666</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="L2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="36">
+      <c r="O2" s="36">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="3">
         <v>729</v>
       </c>
-      <c r="O2" s="11">
+      <c r="Q2" s="11">
         <v>14000000000</v>
       </c>
-      <c r="P2" s="11">
+      <c r="R2" s="11">
         <v>3300000000</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="S2" s="42">
         <v>6</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="U2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="4">
+      <c r="V2" s="4">
         <v>700000</v>
       </c>
-      <c r="U2" s="4">
+      <c r="W2" s="4">
         <v>737100000</v>
       </c>
-      <c r="V2" s="4">
+      <c r="X2" s="4">
         <v>200000</v>
       </c>
-      <c r="W2" s="4">
+      <c r="Y2" s="4">
         <v>120000000</v>
       </c>
-      <c r="X2" s="24">
+      <c r="Z2" s="24">
         <v>5</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="AA2" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2434,61 +2446,66 @@
         <v>1400000</v>
       </c>
       <c r="G3" s="4">
-        <f>G14</f>
-        <v>226666666.66666666</v>
+        <f t="shared" ref="G3:G14" si="0">I3/2</f>
+        <v>113333333.33333333</v>
       </c>
       <c r="H3" s="4">
         <v>10</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="4">
+        <f>I14</f>
+        <v>226666666.66666666</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="M3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="36">
+      <c r="O3" s="36">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>382</v>
       </c>
-      <c r="O3" s="21">
+      <c r="Q3" s="21">
         <f>6500000000+1600000000</f>
         <v>8100000000</v>
       </c>
-      <c r="P3" s="11">
+      <c r="R3" s="11">
         <f>1500000000+375000000</f>
         <v>1875000000</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>6</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="4">
+      <c r="V3" s="4">
         <v>200000</v>
       </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <v>210600000</v>
       </c>
-      <c r="V3" s="12">
+      <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="W3" s="12">
+      <c r="Y3" s="12">
         <v>0</v>
       </c>
-      <c r="X3" s="24">
+      <c r="Z3" s="24">
         <v>5</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="AA3" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2508,58 +2525,63 @@
         <v>2250000</v>
       </c>
       <c r="G4" s="4">
-        <v>289000000</v>
+        <f t="shared" si="0"/>
+        <v>144500000</v>
       </c>
       <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="4">
+        <v>289000000</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="M4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="N4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="36">
+      <c r="O4" s="36">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>115</v>
       </c>
-      <c r="O4" s="11">
+      <c r="Q4" s="11">
         <v>2200000000</v>
       </c>
-      <c r="P4" s="11">
+      <c r="R4" s="11">
         <v>500000000</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="S4" s="42">
         <v>6</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="4">
+      <c r="V4" s="4">
         <v>500000</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W4" s="4">
         <v>526500000</v>
       </c>
-      <c r="V4" s="12">
+      <c r="X4" s="12">
         <v>0</v>
       </c>
-      <c r="W4" s="12">
+      <c r="Y4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="24">
+      <c r="Z4" s="24">
         <v>5</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="AA4" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2579,34 +2601,39 @@
         <v>2250000</v>
       </c>
       <c r="G5" s="4">
-        <v>275000000</v>
+        <f t="shared" si="0"/>
+        <v>137500000</v>
       </c>
       <c r="H5" s="4">
         <v>10</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="I5" s="4">
+        <v>275000000</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="U5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>500000</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <v>526500000</v>
       </c>
-      <c r="V5" s="12">
+      <c r="X5" s="12">
         <v>0</v>
       </c>
-      <c r="W5" s="12">
+      <c r="Y5" s="12">
         <v>0</v>
       </c>
-      <c r="X5" s="24">
+      <c r="Z5" s="24">
         <v>5</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="AA5" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2625,35 +2652,40 @@
       <c r="F6" s="8">
         <v>500000</v>
       </c>
-      <c r="G6" s="8">
-        <v>100000000</v>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
       </c>
       <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="I6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="U6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <v>200000</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <v>210600000</v>
       </c>
-      <c r="V6" s="12">
+      <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="Y6" s="12">
         <v>0</v>
       </c>
-      <c r="X6" s="24">
+      <c r="Z6" s="24">
         <v>5</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="AA6" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2673,34 +2705,39 @@
         <v>2250000</v>
       </c>
       <c r="G7" s="4">
-        <v>275000000</v>
+        <f t="shared" si="0"/>
+        <v>137500000</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="I7" s="4">
+        <v>275000000</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="U7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="4">
+      <c r="V7" s="4">
         <v>500000</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <v>526500000</v>
       </c>
-      <c r="V7" s="12">
+      <c r="X7" s="12">
         <v>0</v>
       </c>
-      <c r="W7" s="12">
+      <c r="Y7" s="12">
         <v>0</v>
       </c>
-      <c r="X7" s="24">
+      <c r="Z7" s="24">
         <v>5</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="AA7" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2720,34 +2757,39 @@
         <v>1100000</v>
       </c>
       <c r="G8" s="4">
-        <v>430000000</v>
+        <f t="shared" si="0"/>
+        <v>215000000</v>
       </c>
       <c r="H8" s="4">
         <v>10</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="I8" s="4">
+        <v>430000000</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="U8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <v>500000</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <v>526500000</v>
       </c>
-      <c r="V8" s="12">
+      <c r="X8" s="12">
         <v>0</v>
       </c>
-      <c r="W8" s="12">
+      <c r="Y8" s="12">
         <v>0</v>
       </c>
-      <c r="X8" s="24">
+      <c r="Z8" s="24">
         <v>5</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="AA8" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2766,35 +2808,40 @@
       <c r="F9" s="4">
         <v>1500000</v>
       </c>
-      <c r="G9" s="9">
-        <v>500000000</v>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>250000000</v>
       </c>
       <c r="H9" s="4">
         <v>10</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="I9" s="9">
+        <v>500000000</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="U9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <v>200000</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <v>210600000</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>500000</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <v>300000000</v>
       </c>
-      <c r="X9" s="24">
+      <c r="Z9" s="24">
         <v>5</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="AA9" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2814,34 +2861,39 @@
         <v>1100000</v>
       </c>
       <c r="G10" s="4">
-        <v>927000000</v>
+        <f t="shared" si="0"/>
+        <v>463500000</v>
       </c>
       <c r="H10" s="4">
         <v>10</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="I10" s="4">
+        <v>927000000</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="U10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="4">
+      <c r="V10" s="4">
         <v>200000</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <v>210600000</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>50000</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <v>30000000</v>
       </c>
-      <c r="X10" s="24">
+      <c r="Z10" s="24">
         <v>5</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="AA10" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2860,35 +2912,40 @@
       <c r="F11" s="8">
         <v>500000</v>
       </c>
-      <c r="G11" s="8">
-        <v>100000000</v>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="I11" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="U11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <v>200000</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <v>210600000</v>
       </c>
-      <c r="V11" s="12">
+      <c r="X11" s="12">
         <v>0</v>
       </c>
-      <c r="W11" s="12">
+      <c r="Y11" s="12">
         <v>0</v>
       </c>
-      <c r="X11" s="24">
+      <c r="Z11" s="24">
         <v>5</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="AA11" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2908,13 +2965,18 @@
         <v>1100000</v>
       </c>
       <c r="G12" s="4">
-        <v>927000000</v>
+        <f t="shared" si="0"/>
+        <v>463500000</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="4">
+        <v>927000000</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2934,13 +2996,18 @@
         <v>650000</v>
       </c>
       <c r="G13" s="4">
-        <v>113000000000</v>
+        <f t="shared" si="0"/>
+        <v>56500000000</v>
       </c>
       <c r="H13" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="4">
+        <v>113000000000</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2959,15 +3026,20 @@
       <c r="F14" s="19">
         <v>1400000</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>113333333.33333333</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
+      <c r="I14" s="18">
         <f>680000000/3</f>
         <v>226666666.66666666</v>
       </c>
-      <c r="H14" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2992,63 +3064,65 @@
       <c r="H15" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="21"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{5084B181-8803-4E25-8784-F2E746FB538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F78F8E-6067-450B-A363-7D0DAA7A8610}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B0F08328-661E-442A-80EA-83F08B1D30D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -2246,7 +2236,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3000,7 +2990,7 @@
         <v>56500000000</v>
       </c>
       <c r="H13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I13" s="4">
         <v>113000000000</v>
@@ -6543,4 +6533,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <xsd:import namespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d2ad661-40b4-4211-810e-9f8311f21e61" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B0F08328-661E-442A-80EA-83F08B1D30D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{B0F08328-661E-442A-80EA-83F08B1D30D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB79795-3F15-4266-8884-E84F5173A889}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Bane</t>
   </si>
@@ -254,6 +265,9 @@
   </si>
   <si>
     <t>KostnadBase</t>
+  </si>
+  <si>
+    <t>Elektr-base(NOK)</t>
   </si>
 </sst>
 </file>
@@ -511,6 +525,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2233,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA998"/>
+  <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2253,18 +2271,19 @@
     <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
@@ -2312,34 +2331,37 @@
         <v>49</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2386,37 +2408,41 @@
         <v>729</v>
       </c>
       <c r="Q2" s="11">
+        <f>R2/2</f>
+        <v>7000000000</v>
+      </c>
+      <c r="R2" s="11">
         <v>14000000000</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>3300000000</v>
       </c>
-      <c r="S2" s="42">
+      <c r="T2" s="42">
         <v>6</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>700000</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <v>737100000</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <v>200000</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <v>120000000</v>
-      </c>
-      <c r="Z2" s="24">
-        <v>5</v>
       </c>
       <c r="AA2" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2436,7 +2462,7 @@
         <v>1400000</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G14" si="0">I3/2</f>
+        <f t="shared" ref="G3:G15" si="0">I3/2</f>
         <v>113333333.33333333</v>
       </c>
       <c r="H3" s="4">
@@ -2462,40 +2488,44 @@
       <c r="P3" s="3">
         <v>382</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q4" si="1">R3/2</f>
+        <v>4050000000</v>
+      </c>
+      <c r="R3" s="21">
         <f>6500000000+1600000000</f>
         <v>8100000000</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <f>1500000000+375000000</f>
         <v>1875000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>200000</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>210600000</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0</v>
       </c>
       <c r="Y3" s="12">
         <v>0</v>
       </c>
-      <c r="Z3" s="24">
-        <v>5</v>
+      <c r="Z3" s="12">
+        <v>0</v>
       </c>
       <c r="AA3" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2541,37 +2571,41 @@
         <v>115</v>
       </c>
       <c r="Q4" s="11">
+        <f t="shared" si="1"/>
+        <v>1100000000</v>
+      </c>
+      <c r="R4" s="11">
         <v>2200000000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
         <v>500000000</v>
       </c>
-      <c r="S4" s="42">
+      <c r="T4" s="42">
         <v>6</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>500000</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>526500000</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
       </c>
       <c r="Y4" s="12">
         <v>0</v>
       </c>
-      <c r="Z4" s="24">
-        <v>5</v>
+      <c r="Z4" s="12">
+        <v>0</v>
       </c>
       <c r="AA4" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2601,29 +2635,29 @@
         <v>275000000</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>500000</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>526500000</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
       </c>
       <c r="Y5" s="12">
         <v>0</v>
       </c>
-      <c r="Z5" s="24">
-        <v>5</v>
+      <c r="Z5" s="12">
+        <v>0</v>
       </c>
       <c r="AA5" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2653,29 +2687,29 @@
         <v>100000000</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="U6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>200000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>210600000</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0</v>
       </c>
       <c r="Y6" s="12">
         <v>0</v>
       </c>
-      <c r="Z6" s="24">
-        <v>5</v>
+      <c r="Z6" s="12">
+        <v>0</v>
       </c>
       <c r="AA6" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2705,29 +2739,29 @@
         <v>275000000</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>500000</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>526500000</v>
-      </c>
-      <c r="X7" s="12">
-        <v>0</v>
       </c>
       <c r="Y7" s="12">
         <v>0</v>
       </c>
-      <c r="Z7" s="24">
-        <v>5</v>
+      <c r="Z7" s="12">
+        <v>0</v>
       </c>
       <c r="AA7" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2757,29 +2791,29 @@
         <v>430000000</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>500000</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>526500000</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0</v>
       </c>
       <c r="Y8" s="12">
         <v>0</v>
       </c>
-      <c r="Z8" s="24">
-        <v>5</v>
+      <c r="Z8" s="12">
+        <v>0</v>
       </c>
       <c r="AA8" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2809,29 +2843,29 @@
         <v>500000000</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="U9" s="33" t="s">
+      <c r="V9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>200000</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>210600000</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>500000</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Z9" s="4">
         <v>300000000</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>5</v>
       </c>
       <c r="AA9" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2861,29 +2895,29 @@
         <v>927000000</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="U10" s="33" t="s">
+      <c r="V10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>200000</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>210600000</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>50000</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Z10" s="4">
         <v>30000000</v>
-      </c>
-      <c r="Z10" s="24">
-        <v>5</v>
       </c>
       <c r="AA10" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2913,29 +2947,29 @@
         <v>100000000</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="U11" s="33" t="s">
+      <c r="V11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>200000</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>210600000</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0</v>
       </c>
       <c r="Y11" s="12">
         <v>0</v>
       </c>
-      <c r="Z11" s="24">
-        <v>5</v>
+      <c r="Z11" s="12">
+        <v>0</v>
       </c>
       <c r="AA11" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2966,7 +3000,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2997,7 +3031,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3029,7 +3063,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3048,7 +3082,8 @@
       <c r="F15" s="19">
         <v>250000</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -3057,7 +3092,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
@@ -6536,6 +6571,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -6770,15 +6814,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6788,6 +6823,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6802,14 +6845,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{B0F08328-661E-442A-80EA-83F08B1D30D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB79795-3F15-4266-8884-E84F5173A889}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C3695-08BE-4910-8F1D-8CEE02DFF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cap rail" sheetId="1" r:id="rId1"/>
-    <sheet name="Invest rail" sheetId="2" r:id="rId2"/>
-    <sheet name="Cap sea" sheetId="3" r:id="rId3"/>
-    <sheet name="Invest sea" sheetId="4" r:id="rId4"/>
-    <sheet name="Invest road" sheetId="5" r:id="rId5"/>
+    <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
+    <sheet name="edge_capacities" sheetId="11" r:id="rId2"/>
+    <sheet name="edge_capacities (backup)" sheetId="6" r:id="rId3"/>
+    <sheet name="zone_lookup" sheetId="10" r:id="rId4"/>
+    <sheet name="Cap rail" sheetId="1" r:id="rId5"/>
+    <sheet name="Invest rail" sheetId="2" r:id="rId6"/>
+    <sheet name="Cap sea" sheetId="3" r:id="rId7"/>
+    <sheet name="Invest sea" sheetId="4" r:id="rId8"/>
+    <sheet name="Invest road" sheetId="5" r:id="rId9"/>
+    <sheet name="Comments" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,14 +38,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="127">
   <si>
     <t>Bane</t>
   </si>
@@ -268,6 +273,159 @@
   </si>
   <si>
     <t>Elektr-base(NOK)</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>To do:</t>
+  </si>
+  <si>
+    <t>Update node names</t>
+  </si>
+  <si>
+    <t>Update node capacities based on new aggregation (?)</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Update product class stuff in node_capacities</t>
+  </si>
+  <si>
+    <t>zone_nr</t>
+  </si>
+  <si>
+    <t>zone_name</t>
+  </si>
+  <si>
+    <t>Viken</t>
+  </si>
+  <si>
+    <t>Vestfold og Telemark</t>
+  </si>
+  <si>
+    <t>Agder</t>
+  </si>
+  <si>
+    <t>Rogaland</t>
+  </si>
+  <si>
+    <t>Horgaland</t>
+  </si>
+  <si>
+    <t>Sogn og Fjordane</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal</t>
+  </si>
+  <si>
+    <t>Innlandet</t>
+  </si>
+  <si>
+    <t>Trøndelag</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>(L)Ofoten og Vesterålen</t>
+  </si>
+  <si>
+    <t>Troms</t>
+  </si>
+  <si>
+    <t>Finnmark</t>
+  </si>
+  <si>
+    <t>North Sweden</t>
+  </si>
+  <si>
+    <t>South Sweden</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Continental shelf</t>
+  </si>
+  <si>
+    <t>Timber Capacity</t>
+  </si>
+  <si>
+    <t>centroid_name</t>
+  </si>
+  <si>
+    <t>Førde</t>
+  </si>
+  <si>
+    <t>Narvik</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Umeå</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>JohanSverdrupPlatform</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>need this?</t>
+  </si>
+  <si>
+    <t>Sea:</t>
+  </si>
+  <si>
+    <t>Rail:</t>
+  </si>
+  <si>
+    <t>How to deal with distinguishment between Timber and other?</t>
+  </si>
+  <si>
+    <t>Capacity increase</t>
+  </si>
+  <si>
+    <t>Investment cost</t>
+  </si>
+  <si>
+    <t>Lead time</t>
+  </si>
+  <si>
+    <t>Capacity of -1 means infinite capacity</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>from_zone_nr</t>
+  </si>
+  <si>
+    <t>to_zone_nr</t>
+  </si>
+  <si>
+    <t>from_centroid</t>
+  </si>
+  <si>
+    <t>to_centroid</t>
+  </si>
+  <si>
+    <t>How do we deal with capacities in nodes? Differentiate by mode?</t>
   </si>
 </sst>
 </file>
@@ -278,11 +436,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,16 +601,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -453,63 +657,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +838,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,11 +1037,4743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="36"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="4">
+        <v>6365000</v>
+      </c>
+      <c r="M21" s="4">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="4">
+        <v>475000</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1425000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1377500</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="4">
+        <v>285000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1330000</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1780300</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1785000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="22">
+        <v>19498000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="22">
+        <v>38407000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="22">
+        <v>9708000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="22">
+        <v>22902000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="22">
+        <v>100114000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="22">
+        <v>18310000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="22">
+        <v>7806000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="22">
+        <v>52811000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="22">
+        <v>9510000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177AAFCB-7641-422A-B1D1-37403FAC90A4}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
+  <dimension ref="A1:P60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1600000</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>250000</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="4">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1600000</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="16">
+        <v>250000</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>800000</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P53" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>650000</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P54" s="4">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>250000</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="16">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>950000</v>
+      </c>
+      <c r="L58" s="49">
+        <v>1</v>
+      </c>
+      <c r="M58" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="50">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="4">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" s="4">
+        <v>2000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2AA28D-68FE-4E72-9FD4-D7B206FA562E}">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LOOKUP(A2,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LOOKUP(B2,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LOOKUP(A3,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LOOKUP(B3,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LOOKUP(A4,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="D4" t="str">
+        <f>LOOKUP(B4,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LOOKUP(A5,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="D5" t="str">
+        <f>LOOKUP(B5,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LOOKUP(A6,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="D6" t="str">
+        <f>LOOKUP(B6,zone_lookup!$A$1:$C$19)</f>
+        <v>JohanSverdrupPlatform</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f>LOOKUP(A7,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="D7" t="str">
+        <f>LOOKUP(B7,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f>LOOKUP(A8,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="D8" t="str">
+        <f>LOOKUP(B8,zone_lookup!$A$1:$C$19)</f>
+        <v>Førde</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f>LOOKUP(A9,zone_lookup!$A$1:$C$19)</f>
+        <v>Førde</v>
+      </c>
+      <c r="D9" t="str">
+        <f>LOOKUP(B9,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LOOKUP(A10,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D10" t="str">
+        <f>LOOKUP(B10,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>LOOKUP(A11,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D11" t="str">
+        <f>LOOKUP(B11,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LOOKUP(A12,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="D12" t="str">
+        <f>LOOKUP(B12,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f>LOOKUP(A13,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="D13" t="str">
+        <f>LOOKUP(B13,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LOOKUP(A14,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="D14" t="str">
+        <f>LOOKUP(B14,zone_lookup!$A$1:$C$19)</f>
+        <v>Alta</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="str">
+        <f>LOOKUP(A15,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="D15" t="str">
+        <f>LOOKUP(B15,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16" t="str">
+        <f>LOOKUP(A16,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="D16" t="str">
+        <f>LOOKUP(B16,zone_lookup!$A$1:$C$19)</f>
+        <v>World</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="str">
+        <f>LOOKUP(A17,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="D17" t="str">
+        <f>LOOKUP(B17,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="str">
+        <f>LOOKUP(A18,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D18" t="str">
+        <f>LOOKUP(B18,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="str">
+        <f>LOOKUP(A19,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D19" t="str">
+        <f>LOOKUP(B19,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="str">
+        <f>LOOKUP(A20,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D20" t="str">
+        <f>LOOKUP(B20,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="str">
+        <f>LOOKUP(A21,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D21" t="str">
+        <f>LOOKUP(B21,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LOOKUP(A22,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D22" t="str">
+        <f>LOOKUP(B22,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <f>LOOKUP(A23,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D23" t="str">
+        <f>LOOKUP(B23,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f>LOOKUP(A24,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D24" t="str">
+        <f>LOOKUP(B24,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LOOKUP(A25,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="D25" t="str">
+        <f>LOOKUP(B25,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LOOKUP(A26,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="D26" t="str">
+        <f>LOOKUP(B26,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LOOKUP(A27,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="D27" t="str">
+        <f>LOOKUP(B27,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LOOKUP(A28,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="D28" t="str">
+        <f>LOOKUP(B28,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LOOKUP(A29,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="D29" t="str">
+        <f>LOOKUP(B29,zone_lookup!$A$1:$C$19)</f>
+        <v>Førde</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LOOKUP(A30,zone_lookup!$A$1:$C$19)</f>
+        <v>Førde</v>
+      </c>
+      <c r="D30" t="str">
+        <f>LOOKUP(B30,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LOOKUP(A31,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D31" t="str">
+        <f>LOOKUP(B31,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LOOKUP(A32,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D32" t="str">
+        <f>LOOKUP(B32,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LOOKUP(A33,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D33" t="str">
+        <f>LOOKUP(B33,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LOOKUP(A34,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D34" t="str">
+        <f>LOOKUP(B34,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LOOKUP(A35,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D35" t="str">
+        <f>LOOKUP(B35,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LOOKUP(A36,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="D36" t="str">
+        <f>LOOKUP(B36,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LOOKUP(A37,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="D37" t="str">
+        <f>LOOKUP(B37,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LOOKUP(A38,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="D38" t="str">
+        <f>LOOKUP(B38,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LOOKUP(A39,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="D39" t="str">
+        <f>LOOKUP(B39,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LOOKUP(A40,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="D40" t="str">
+        <f>LOOKUP(B40,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LOOKUP(A41,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="D41" t="str">
+        <f>LOOKUP(B41,zone_lookup!$A$1:$C$19)</f>
+        <v>Alta</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LOOKUP(A42,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="D42" t="str">
+        <f>LOOKUP(B42,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LOOKUP(A43,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="D43" t="str">
+        <f>LOOKUP(B43,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="str">
+        <f>LOOKUP(A44,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D44" t="str">
+        <f>LOOKUP(B44,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="str">
+        <f>LOOKUP(A45,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D45" t="str">
+        <f>LOOKUP(B45,zone_lookup!$A$1:$C$19)</f>
+        <v>Bergen</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <f>LOOKUP(A46,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D46" t="str">
+        <f>LOOKUP(B46,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <f>LOOKUP(A47,zone_lookup!$A$1:$C$19)</f>
+        <v>Skien</v>
+      </c>
+      <c r="D47" t="str">
+        <f>LOOKUP(B47,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="str">
+        <f>LOOKUP(A48,zone_lookup!$A$1:$C$19)</f>
+        <v>Oslo</v>
+      </c>
+      <c r="D48" t="str">
+        <f>LOOKUP(B48,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
+        <f>LOOKUP(A49,zone_lookup!$A$1:$C$19)</f>
+        <v>Kristiansand</v>
+      </c>
+      <c r="D49" t="str">
+        <f>LOOKUP(B49,zone_lookup!$A$1:$C$19)</f>
+        <v>Stavanger</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="str">
+        <f>LOOKUP(A50,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D50" t="str">
+        <f>LOOKUP(B50,zone_lookup!$A$1:$C$19)</f>
+        <v>Ålesund</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="str">
+        <f>LOOKUP(A51,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D51" t="str">
+        <f>LOOKUP(B51,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="str">
+        <f>LOOKUP(A52,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D52" t="str">
+        <f>LOOKUP(B52,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53" t="str">
+        <f>LOOKUP(A53,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamar</v>
+      </c>
+      <c r="D53" t="str">
+        <f>LOOKUP(B53,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="str">
+        <f>LOOKUP(A54,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D54" t="str">
+        <f>LOOKUP(B54,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" t="str">
+        <f>LOOKUP(A55,zone_lookup!$A$1:$C$19)</f>
+        <v>Trondheim</v>
+      </c>
+      <c r="D55" t="str">
+        <f>LOOKUP(B55,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="str">
+        <f>LOOKUP(A56,zone_lookup!$A$1:$C$19)</f>
+        <v>Bodø</v>
+      </c>
+      <c r="D56" t="str">
+        <f>LOOKUP(B56,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="str">
+        <f>LOOKUP(A57,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="D57" t="str">
+        <f>LOOKUP(B57,zone_lookup!$A$1:$C$19)</f>
+        <v>Tromsø</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="str">
+        <f>LOOKUP(A58,zone_lookup!$A$1:$C$19)</f>
+        <v>Narvik</v>
+      </c>
+      <c r="D58" t="str">
+        <f>LOOKUP(B58,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59" t="str">
+        <f>LOOKUP(A59,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="D59" t="str">
+        <f>LOOKUP(B59,zone_lookup!$A$1:$C$19)</f>
+        <v>Hamburg</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60" t="str">
+        <f>LOOKUP(A60,zone_lookup!$A$1:$C$19)</f>
+        <v>Stockholm</v>
+      </c>
+      <c r="D60" t="str">
+        <f>LOOKUP(B60,zone_lookup!$A$1:$C$19)</f>
+        <v>Umeå</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998FC6BF-2638-4FDC-8B86-966DF2E827BE}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>21</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>22</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>23</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>24</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>25</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -750,7 +5791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -779,19 +5820,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>1250000</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="4">
@@ -808,16 +5849,16 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4">
         <v>1250000</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="4">
@@ -834,16 +5875,16 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>1500000</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="4">
@@ -860,10 +5901,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="4">
@@ -886,10 +5927,10 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="4">
@@ -912,10 +5953,10 @@
       <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4">
@@ -938,10 +5979,10 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4">
@@ -964,16 +6005,16 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>1000000</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="6">
@@ -990,16 +6031,16 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
         <v>800000</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="20" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6">
@@ -1016,22 +6057,22 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4">
         <v>250000</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="4">
         <v>1000000</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="L11" t="s">
@@ -1045,10 +6086,10 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4">
@@ -1060,7 +6101,7 @@
       <c r="I12" s="4">
         <v>5000000</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="L12" t="s">
@@ -1077,13 +6118,13 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -1092,7 +6133,7 @@
       <c r="I13" s="4">
         <v>5000000</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="L13" t="s">
@@ -1106,13 +6147,13 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="4">
@@ -1124,7 +6165,7 @@
       <c r="I14" s="4">
         <v>5000000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="L14" t="s">
@@ -1138,20 +6179,20 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>250000</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="13">
+      <c r="J15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1159,16 +6200,16 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>250000</v>
       </c>
       <c r="F16" t="s">
@@ -1178,7 +6219,7 @@
         <v>69</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="13">
+      <c r="J16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1186,13 +6227,13 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="32" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="4">
@@ -1209,13 +6250,13 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="33" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="4">
@@ -2249,11 +7290,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -2284,7 +7325,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2312,7 +7353,7 @@
         <v>74</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -2336,7 +7377,7 @@
       <c r="S1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -2368,10 +7409,10 @@
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4">
@@ -2392,16 +7433,16 @@
         <v>226666666.66666666</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="27">
         <v>1</v>
       </c>
       <c r="P2" s="3">
@@ -2417,10 +7458,10 @@
       <c r="S2" s="11">
         <v>3300000000</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="31">
         <v>6</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="26" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="4">
@@ -2435,10 +7476,10 @@
       <c r="Z2" s="4">
         <v>120000000</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="4">
         <v>5</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2449,10 +7490,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4">
@@ -2473,16 +7514,16 @@
         <v>226666666.66666666</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="27">
         <v>2</v>
       </c>
       <c r="P3" s="3">
@@ -2492,7 +7533,7 @@
         <f t="shared" ref="Q3:Q4" si="1">R3/2</f>
         <v>4050000000</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="18">
         <f>6500000000+1600000000</f>
         <v>8100000000</v>
       </c>
@@ -2503,7 +7544,7 @@
       <c r="T3">
         <v>6</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="26" t="s">
         <v>31</v>
       </c>
       <c r="W3" s="4">
@@ -2518,10 +7559,10 @@
       <c r="Z3" s="12">
         <v>0</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="4">
         <v>5</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2532,10 +7573,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4">
@@ -2555,16 +7596,16 @@
         <v>289000000</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="27">
         <v>1</v>
       </c>
       <c r="P4" s="3">
@@ -2580,10 +7621,10 @@
       <c r="S4" s="11">
         <v>500000000</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="31">
         <v>6</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="W4" s="4">
@@ -2598,10 +7639,10 @@
       <c r="Z4" s="12">
         <v>0</v>
       </c>
-      <c r="AA4" s="24">
+      <c r="AA4" s="4">
         <v>5</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2612,10 +7653,10 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="4">
@@ -2635,7 +7676,7 @@
         <v>275000000</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="V5" s="33" t="s">
+      <c r="V5" s="26" t="s">
         <v>32</v>
       </c>
       <c r="W5" s="4">
@@ -2650,10 +7691,10 @@
       <c r="Z5" s="12">
         <v>0</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="4">
         <v>5</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2664,10 +7705,10 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="4">
@@ -2687,7 +7728,7 @@
         <v>100000000</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="W6" s="4">
@@ -2702,10 +7743,10 @@
       <c r="Z6" s="12">
         <v>0</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="4">
         <v>5</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2713,13 +7754,13 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4">
@@ -2739,7 +7780,7 @@
         <v>275000000</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="W7" s="4">
@@ -2754,10 +7795,10 @@
       <c r="Z7" s="12">
         <v>0</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="4">
         <v>5</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2768,10 +7809,10 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4">
@@ -2791,7 +7832,7 @@
         <v>430000000</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="V8" s="33" t="s">
+      <c r="V8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="W8" s="4">
@@ -2806,10 +7847,10 @@
       <c r="Z8" s="12">
         <v>0</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="4">
         <v>5</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2820,10 +7861,10 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4">
@@ -2843,7 +7884,7 @@
         <v>500000000</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="V9" s="33" t="s">
+      <c r="V9" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W9" s="4">
@@ -2858,10 +7899,10 @@
       <c r="Z9" s="4">
         <v>300000000</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="4">
         <v>5</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2872,10 +7913,10 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4">
@@ -2895,7 +7936,7 @@
         <v>927000000</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="V10" s="33" t="s">
+      <c r="V10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="W10" s="4">
@@ -2910,10 +7951,10 @@
       <c r="Z10" s="4">
         <v>30000000</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="4">
         <v>5</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2924,10 +7965,10 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4">
@@ -2947,7 +7988,7 @@
         <v>100000000</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="V11" s="33" t="s">
+      <c r="V11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="W11" s="4">
@@ -2962,10 +8003,10 @@
       <c r="Z11" s="12">
         <v>0</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="4">
         <v>5</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2976,10 +8017,10 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4">
@@ -3004,13 +8045,13 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="4">
@@ -3038,16 +8079,16 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>150000</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>1400000</v>
       </c>
       <c r="G14" s="4">
@@ -3057,7 +8098,7 @@
       <c r="H14" s="4">
         <v>10</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <f>680000000/3</f>
         <v>226666666.66666666</v>
       </c>
@@ -3067,19 +8108,19 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>250000</v>
       </c>
       <c r="G15" s="4">
@@ -3116,7 +8157,7 @@
     <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4180,12 +9221,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4207,75 +9248,75 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="22">
         <v>19498000</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="22">
         <v>38407000</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="22">
         <v>9708000</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="22">
         <v>22902000</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="22">
         <v>100114000</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>18310000</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="22">
         <v>7806000</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="22">
         <v>52811000</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="22">
         <v>9510000</v>
       </c>
     </row>
@@ -5272,12 +10313,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="D1" sqref="D1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5311,12 +10352,12 @@
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -5331,11 +10372,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="G2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C3">
@@ -5352,7 +10393,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C4">
@@ -5369,7 +10410,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C5">
@@ -5386,7 +10427,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C6">
@@ -5403,7 +10444,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C7">
@@ -5420,7 +10461,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -5437,7 +10478,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C9">
@@ -5454,7 +10495,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C10">
@@ -5469,8 +10510,8 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="G10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6465,12 +11506,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788103D-4203-4CBA-AFEE-D82DB11621B2}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,19 +11523,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
       <c r="F1" t="s">
@@ -6502,19 +11543,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2">
         <v>150</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2">
         <v>360</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2">
         <v>40000000</v>
       </c>
       <c r="F2">
@@ -6525,19 +11566,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3">
         <v>2500000</v>
       </c>
       <c r="F3">
@@ -6545,19 +11586,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4">
         <v>300</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4">
         <v>180</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4">
         <v>20000000</v>
       </c>
       <c r="F4">
@@ -6571,15 +11612,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -6814,6 +11846,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6823,14 +11864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6845,6 +11878,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C3695-08BE-4910-8F1D-8CEE02DFF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{7F2C3695-08BE-4910-8F1D-8CEE02DFF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87CE78B0-517D-432F-90E4-0366A7B6D43F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,8 +807,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1040,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1050,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1103,14 +1101,13 @@
       <c r="D2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2">
         <v>-1</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="21"/>
-      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1125,11 +1122,10 @@
       <c r="D3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3">
         <v>-1</v>
       </c>
       <c r="J3" s="21"/>
-      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1144,11 +1140,10 @@
       <c r="D4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4">
         <v>-1</v>
       </c>
       <c r="J4" s="21"/>
-      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1163,11 +1158,10 @@
       <c r="D5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5">
         <v>-1</v>
       </c>
       <c r="J5" s="21"/>
-      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1182,11 +1176,10 @@
       <c r="D6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6">
         <v>-1</v>
       </c>
       <c r="J6" s="21"/>
-      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1201,11 +1194,10 @@
       <c r="D7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7">
         <v>-1</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1220,11 +1212,10 @@
       <c r="D8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8">
         <v>-1</v>
       </c>
       <c r="J8" s="21"/>
-      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1239,11 +1230,10 @@
       <c r="D9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9">
         <v>-1</v>
       </c>
       <c r="J9" s="21"/>
-      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1258,11 +1248,10 @@
       <c r="D10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10">
         <v>-1</v>
       </c>
       <c r="J10" s="21"/>
-      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1277,11 +1266,11 @@
       <c r="D11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11">
         <v>-1</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1296,11 +1285,11 @@
       <c r="D12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12">
         <v>-1</v>
       </c>
       <c r="J12" s="34"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1315,13 +1304,13 @@
       <c r="D13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13">
         <v>-1</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1336,13 +1325,13 @@
       <c r="D14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14">
         <v>-1</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1357,13 +1346,13 @@
       <c r="D15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15">
         <v>-1</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1378,13 +1367,13 @@
       <c r="D16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16">
         <v>-1</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1399,13 +1388,13 @@
       <c r="D17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17">
         <v>-1</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1420,13 +1409,13 @@
       <c r="D18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18">
         <v>-1</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1441,7 +1430,7 @@
       <c r="D19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19">
         <v>-1</v>
       </c>
       <c r="J19" s="20"/>
@@ -1449,7 +1438,7 @@
         <v>115</v>
       </c>
       <c r="L19" s="34"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1488,7 +1477,9 @@
       <c r="D21" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
       <c r="K21" s="20" t="s">
         <v>28</v>
       </c>
@@ -1512,6 +1503,9 @@
       <c r="D22" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
       <c r="K22" s="20" t="s">
         <v>31</v>
       </c>
@@ -1535,6 +1529,9 @@
       <c r="D23" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
       <c r="K23" s="20" t="s">
         <v>35</v>
       </c>
@@ -1558,6 +1555,9 @@
       <c r="D24" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
       <c r="K24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1581,6 +1581,9 @@
       <c r="D25" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
       <c r="K25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1604,6 +1607,9 @@
       <c r="D26" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1627,6 +1633,9 @@
       <c r="D27" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
       <c r="K27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1650,6 +1659,9 @@
       <c r="D28" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
       <c r="K28" s="20" t="s">
         <v>30</v>
       </c>
@@ -1673,6 +1685,9 @@
       <c r="D29" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
       <c r="K29" s="20" t="s">
         <v>41</v>
       </c>
@@ -1696,6 +1711,9 @@
       <c r="D30" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
       <c r="K30" s="20" t="s">
         <v>36</v>
       </c>
@@ -1719,6 +1737,9 @@
       <c r="D31" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
       <c r="K31" t="s">
         <v>13</v>
       </c>
@@ -1742,6 +1763,9 @@
       <c r="D32" s="34" t="s">
         <v>45</v>
       </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
       <c r="K32" t="s">
         <v>10</v>
       </c>
@@ -1764,6 +1788,9 @@
       </c>
       <c r="D33" s="34" t="s">
         <v>45</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
       </c>
       <c r="K33" t="s">
         <v>63</v>
@@ -3914,19 +3941,19 @@
       <c r="H58" s="4">
         <v>950000</v>
       </c>
-      <c r="L58" s="49">
-        <v>1</v>
-      </c>
-      <c r="M58" s="49" t="s">
+      <c r="L58" s="47">
+        <v>1</v>
+      </c>
+      <c r="M58" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="N58" s="49" t="s">
+      <c r="N58" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O58" s="49" t="s">
+      <c r="O58" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="50">
+      <c r="P58" s="48">
         <v>250000</v>
       </c>
     </row>
@@ -3993,7 +4020,7 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="46" t="s">
         <v>112</v>
       </c>
       <c r="L60">
@@ -4021,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2AA28D-68FE-4E72-9FD4-D7B206FA562E}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -5554,211 +5581,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="39">
         <v>21</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="37">
         <v>22</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="39">
         <v>23</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="37">
         <v>24</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>25</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>111</v>
       </c>
     </row>
@@ -11612,6 +11639,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -11846,24 +11890,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11880,29 +11932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97909E35-3EF3-4E49-BADC-20215281713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{97909E35-3EF3-4E49-BADC-20215281713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712E1ABB-D99C-49B9-B23B-ECC5EED1F17E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Rogaland</t>
   </si>
   <si>
-    <t>Horgaland</t>
-  </si>
-  <si>
     <t>Sogn og Fjordane</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Biogas</t>
+  </si>
+  <si>
+    <t>Hordaland</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>10</v>
@@ -710,13 +710,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>13</v>
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -968,10 +968,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>13</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1019,10 +1019,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>13</v>
@@ -1045,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>13</v>
@@ -1071,10 +1071,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>13</v>
@@ -1097,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>13</v>
@@ -1123,10 +1123,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>13</v>
@@ -1149,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1338,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1495,10 +1495,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>11</v>
@@ -1524,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1551,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>11</v>
@@ -1575,10 +1575,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>11</v>
@@ -1599,10 +1599,10 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>11</v>
@@ -1622,10 +1622,10 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>11</v>
@@ -1645,10 +1645,10 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>11</v>
@@ -1668,10 +1668,10 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>11</v>
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1828,10 +1828,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>19</v>
@@ -1852,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1879,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1957,10 +1957,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>19</v>
@@ -1981,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -2007,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>19</v>
@@ -2030,10 +2030,10 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>19</v>
@@ -2053,10 +2053,10 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>19</v>
@@ -2076,10 +2076,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>19</v>
@@ -2099,10 +2099,10 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>19</v>
@@ -2122,10 +2122,10 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>19</v>
@@ -2176,16 +2176,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>10</v>
@@ -2194,28 +2194,28 @@
         <v>12</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="L1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2333,7 +2333,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2385,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -2489,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -2541,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -2564,10 +2564,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -2590,10 +2590,10 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -2616,10 +2616,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -2645,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -2954,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -3113,7 +3113,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -3139,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3162,10 +3162,10 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -3188,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -3217,7 +3217,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -3266,10 +3266,10 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -3292,10 +3292,10 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
         <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -3726,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -3860,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -3899,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -3939,10 +3939,10 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -3979,10 +3979,10 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
         <v>46</v>
-      </c>
-      <c r="D59" t="s">
-        <v>47</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -4016,10 +4016,10 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -4054,7 +4054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -4070,19 +4070,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -4110,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4130,7 +4130,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -4167,17 +4167,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -4202,12 +4202,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4216,6 +4216,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4450,38 +4467,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4504,9 +4493,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{97909E35-3EF3-4E49-BADC-20215281713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712E1ABB-D99C-49B9-B23B-ECC5EED1F17E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F3FDB7-C931-4931-B377-38511D55C441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+      <selection activeCell="I52" sqref="I52:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,23 +4216,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4467,10 +4450,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4493,20 +4504,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F3FDB7-C931-4931-B377-38511D55C441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ACDB1B87-F356-45D2-BE52-76574382D329}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -20,17 +20,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -39,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="80">
   <si>
     <t>Oslo</t>
   </si>
@@ -251,13 +240,34 @@
     <t>Hydrogen</t>
   </si>
   <si>
-    <t>Battery electric</t>
-  </si>
-  <si>
-    <t>Biogas</t>
-  </si>
-  <si>
     <t>Hordaland</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>UPGRADE VERY EXPENSIVE</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Why at zero? Didn't we want any traffic here?</t>
+  </si>
+  <si>
+    <t>HAVING A ZERO AT THE EXPANSION OPTION LEADS TO AN ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We decided to have terminals for all product groups together </t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>we removed biogas with max distance of 300km, 180 trucks filled dauly, and station cost of 20M, ledetid 5</t>
   </si>
 </sst>
 </file>
@@ -268,11 +278,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,6 +415,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,38 +448,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,26 +706,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
@@ -718,11 +750,13 @@
       <c r="H1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -746,7 +780,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -770,7 +804,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -794,7 +828,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -818,12 +852,12 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -842,7 +876,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -866,7 +900,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -890,7 +924,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -914,7 +948,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -938,7 +972,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -963,7 +997,7 @@
       <c r="I11" s="12"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -988,7 +1022,7 @@
       <c r="I12" s="20"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1014,7 +1048,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1040,7 +1074,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1066,7 +1100,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1092,7 +1126,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1118,7 +1152,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1144,7 +1178,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1170,7 +1204,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1204,7 +1238,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1237,7 +1271,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1269,7 +1303,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1301,12 +1335,12 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1333,7 +1367,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1354,6 +1388,9 @@
       </c>
       <c r="G25" s="21">
         <v>0</v>
+      </c>
+      <c r="H25" s="33">
+        <v>5</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="3"/>
@@ -1362,7 +1399,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1394,7 +1431,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1426,7 +1463,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1458,7 +1495,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1490,7 +1527,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1511,6 +1548,9 @@
       </c>
       <c r="G30" s="21">
         <v>0</v>
+      </c>
+      <c r="H30" s="33">
+        <v>5</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="3"/>
@@ -1519,7 +1559,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1546,7 +1586,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1568,9 +1608,12 @@
       <c r="G32" s="21">
         <v>0</v>
       </c>
+      <c r="H32" s="33">
+        <v>5</v>
+      </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1592,9 +1635,12 @@
       <c r="G33" s="23">
         <v>0</v>
       </c>
+      <c r="H33" s="23">
+        <v>5</v>
+      </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1616,8 +1662,11 @@
       <c r="G34" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1639,8 +1688,11 @@
       <c r="G35" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1663,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1686,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1713,7 +1765,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1742,7 +1794,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1769,7 +1821,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1796,12 +1848,12 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1823,7 +1875,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1845,9 +1897,12 @@
       <c r="G43" s="23">
         <v>0</v>
       </c>
+      <c r="H43" s="23">
+        <v>5</v>
+      </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1874,7 +1929,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1898,7 +1953,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1925,7 +1980,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1952,7 +2007,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1974,9 +2029,12 @@
       <c r="G48" s="23">
         <v>0</v>
       </c>
+      <c r="H48" s="23">
+        <v>5</v>
+      </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2002,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2024,8 +2082,11 @@
       <c r="G50" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2047,8 +2108,11 @@
       <c r="G51" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2070,8 +2134,11 @@
       <c r="G52" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2094,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2117,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2138,6 +2205,9 @@
       </c>
       <c r="G55" s="23">
         <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2148,33 +2218,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:J52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2217,8 +2287,14 @@
       <c r="N1" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2244,7 +2320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2270,7 +2346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2296,7 +2372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2322,7 +2398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2348,7 +2424,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2374,7 +2450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2400,7 +2476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2426,7 +2502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2452,7 +2528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2478,7 +2554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2504,7 +2580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2530,7 +2606,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2556,7 +2632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2582,7 +2658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2608,7 +2684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2634,7 +2710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2660,7 +2736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2686,7 +2762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2712,7 +2788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2738,7 +2814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2764,7 +2840,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2790,7 +2866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2816,7 +2892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2842,7 +2918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2868,7 +2944,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2894,7 +2970,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2920,7 +2996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -2946,7 +3022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2972,7 +3048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2998,7 +3074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3024,7 +3100,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3050,7 +3126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3076,7 +3152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3102,7 +3178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3128,7 +3204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3154,7 +3230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3180,7 +3256,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3206,7 +3282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3232,7 +3308,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3258,7 +3334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3284,7 +3360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3318,7 +3394,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3361,7 +3437,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3404,7 +3480,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3447,7 +3523,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3490,7 +3566,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3533,7 +3609,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3576,7 +3652,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3613,19 +3689,21 @@
       <c r="L50" s="3">
         <v>1</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="27">
         <v>1100000000</v>
       </c>
       <c r="N50" s="3">
         <v>6</v>
       </c>
-      <c r="O50" s="25"/>
+      <c r="O50" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3660,15 +3738,15 @@
         <v>10</v>
       </c>
       <c r="L51" s="3"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3693,29 +3771,33 @@
       <c r="H52" s="10">
         <v>250000</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3"/>
+      <c r="I52" s="7">
+        <v>250000</v>
+      </c>
+      <c r="J52" s="7">
+        <v>50000000</v>
+      </c>
+      <c r="K52" s="7">
+        <v>10</v>
+      </c>
       <c r="L52" s="3">
         <v>1</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="27">
         <v>4050000000</v>
       </c>
       <c r="N52" s="3">
         <v>6</v>
       </c>
-      <c r="O52" s="25"/>
+      <c r="O52" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3750,15 +3832,15 @@
         <v>10</v>
       </c>
       <c r="L53" s="3"/>
-      <c r="M53" s="25"/>
+      <c r="M53" s="27"/>
       <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
+      <c r="O53" s="24"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3795,19 +3877,21 @@
       <c r="L54" s="3">
         <v>1</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M54" s="27">
         <v>7000000000</v>
       </c>
       <c r="N54" s="3">
         <v>6</v>
       </c>
-      <c r="O54" s="25"/>
+      <c r="O54" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3842,6 +3926,7 @@
         <v>10</v>
       </c>
       <c r="L55" s="3"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="3"/>
@@ -3849,7 +3934,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3884,6 +3969,7 @@
         <v>17</v>
       </c>
       <c r="L56" s="3"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="3"/>
@@ -3891,7 +3977,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>11</v>
       </c>
@@ -3916,14 +4002,17 @@
       <c r="H57" s="9">
         <v>0</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="7">
+        <v>250000</v>
+      </c>
+      <c r="J57" s="7">
+        <v>50000000</v>
+      </c>
+      <c r="K57" s="7">
+        <v>10</v>
       </c>
       <c r="L57" s="3"/>
-      <c r="M57" s="25"/>
+      <c r="M57" s="27"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="3"/>
@@ -3931,7 +4020,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>11</v>
       </c>
@@ -3966,12 +4055,12 @@
         <v>10</v>
       </c>
       <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="M58" s="30"/>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22</v>
       </c>
@@ -3996,19 +4085,22 @@
       <c r="H59" s="3">
         <v>2000000</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="I59" s="7">
+        <v>650000</v>
+      </c>
+      <c r="J59" s="7">
+        <v>137500000</v>
+      </c>
+      <c r="K59" s="7">
+        <v>10</v>
       </c>
       <c r="L59" s="3"/>
-      <c r="M59" s="18"/>
+      <c r="M59" s="31"/>
       <c r="N59" s="11"/>
       <c r="O59" s="18"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4033,39 +4125,49 @@
       <c r="H60" s="20">
         <v>0</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="24"/>
       <c r="L60" s="3"/>
       <c r="M60" s="19"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="19"/>
+      <c r="O60" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="P60" s="3"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4104,13 +4206,16 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4125,87 +4230,71 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>180</v>
-      </c>
-      <c r="E4">
-        <v>20000000</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177AAFCB-7641-422A-B1D1-37403FAC90A4}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>63</v>
       </c>
@@ -4216,8 +4305,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ab0102ed29085baca82ec1af27f0672">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32578e7ce5d36f6e724f25bbda53d39" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
     <xsd:import namespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
     <xsd:element name="properties">
@@ -4241,6 +4347,7 @@
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4313,6 +4420,11 @@
     <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4450,25 +4562,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79DA533C-9A6E-4D83-BCFC-25254FE6FDCB}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4484,29 +4604,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ACDB1B87-F356-45D2-BE52-76574382D329}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9521F94-D7AF-4FFC-9201-3276448CD1FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="81">
   <si>
     <t>Oslo</t>
   </si>
@@ -268,6 +279,9 @@
   </si>
   <si>
     <t>we removed biogas with max distance of 300km, 180 trucks filled dauly, and station cost of 20M, ledetid 5</t>
+  </si>
+  <si>
+    <t>Ingen bane!</t>
   </si>
 </sst>
 </file>
@@ -448,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +503,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,26 +721,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
@@ -756,7 +771,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -780,7 +795,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -804,7 +819,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -828,7 +843,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -852,7 +867,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -876,7 +891,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -900,7 +915,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -924,7 +939,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -948,7 +963,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -972,7 +987,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -997,7 +1012,7 @@
       <c r="I11" s="12"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1022,7 +1037,7 @@
       <c r="I12" s="20"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1048,7 +1063,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1074,7 +1089,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1100,7 +1115,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1126,7 +1141,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1152,7 +1167,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1178,7 +1193,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1204,7 +1219,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1238,7 +1253,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1271,7 +1286,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1303,7 +1318,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1335,7 +1350,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1367,7 +1382,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1391,6 +1406,9 @@
       </c>
       <c r="H25" s="33">
         <v>5</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="3"/>
@@ -1399,7 +1417,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1431,7 +1449,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1463,7 +1481,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1495,7 +1513,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1527,7 +1545,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1540,8 +1558,8 @@
       <c r="D30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="21">
-        <v>0</v>
+      <c r="E30" s="23">
+        <v>1780300</v>
       </c>
       <c r="F30" s="21">
         <v>0</v>
@@ -1559,7 +1577,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1586,7 +1604,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1611,9 +1629,12 @@
       <c r="H32" s="33">
         <v>5</v>
       </c>
+      <c r="I32" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1640,7 +1661,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1738,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1765,7 +1786,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1794,7 +1815,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1821,7 +1842,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1848,7 +1869,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1875,7 +1896,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1888,8 +1909,8 @@
       <c r="D43" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="21">
-        <v>0</v>
+      <c r="E43" s="34">
+        <v>18310000</v>
       </c>
       <c r="F43" s="23">
         <v>0</v>
@@ -1902,7 +1923,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1929,7 +1950,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1953,7 +1974,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1980,7 +2001,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2007,7 +2028,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2020,8 +2041,8 @@
       <c r="D48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="21">
-        <v>0</v>
+      <c r="E48" s="34">
+        <v>9510000</v>
       </c>
       <c r="F48" s="23">
         <v>0</v>
@@ -2034,7 +2055,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2060,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2073,8 +2094,8 @@
       <c r="D50" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="21">
-        <v>0</v>
+      <c r="E50" s="34">
+        <v>9510000</v>
       </c>
       <c r="F50" s="23">
         <v>0</v>
@@ -2086,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2099,8 +2120,8 @@
       <c r="D51" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="21">
-        <v>0</v>
+      <c r="E51" s="34">
+        <v>9510000</v>
       </c>
       <c r="F51" s="23">
         <v>0</v>
@@ -2112,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2125,8 +2146,8 @@
       <c r="D52" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="21">
-        <v>0</v>
+      <c r="E52" s="34">
+        <v>9510000</v>
       </c>
       <c r="F52" s="23">
         <v>0</v>
@@ -2138,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2161,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2184,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2221,30 +2242,30 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2294,7 +2315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2320,7 +2341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2346,7 +2367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2372,7 +2393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2398,7 +2419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2476,7 +2497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2502,7 +2523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2528,7 +2549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2580,7 +2601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2606,7 +2627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2632,7 +2653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2658,7 +2679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2684,7 +2705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2710,7 +2731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2736,7 +2757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2788,7 +2809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2814,7 +2835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2840,7 +2861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2892,7 +2913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2918,7 +2939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2970,7 +2991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2996,7 +3017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3022,7 +3043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3048,7 +3069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3074,7 +3095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3100,7 +3121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3126,7 +3147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3152,7 +3173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3178,7 +3199,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3204,7 +3225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3230,7 +3251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3256,7 +3277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3282,7 +3303,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3334,7 +3355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3360,7 +3381,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3394,7 +3415,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3437,7 +3458,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3480,7 +3501,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3523,7 +3544,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3566,7 +3587,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3609,7 +3630,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3652,7 +3673,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3703,7 +3724,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3746,7 +3767,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3797,7 +3818,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3840,7 +3861,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3891,7 +3912,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3934,7 +3955,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3977,7 +3998,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4020,7 +4041,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4060,7 +4081,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4100,7 +4121,7 @@
       <c r="O59" s="18"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4140,7 +4161,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
         <v>75</v>
       </c>
@@ -4155,19 +4176,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -4187,7 +4208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4244,14 +4265,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
@@ -4259,42 +4280,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>63</v>
       </c>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9521F94-D7AF-4FFC-9201-3276448CD1FF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437944D0-78E9-48CE-9287-E554586CD4F8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
   <si>
     <t>Oslo</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Ingen bane!</t>
+  </si>
+  <si>
+    <t>We need to define for sweden as well</t>
+  </si>
+  <si>
+    <t>out of scope, list as infinite capacity</t>
   </si>
 </sst>
 </file>
@@ -721,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2061,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2132,8 +2138,11 @@
       <c r="H51" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2181,8 +2190,11 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2204,8 +2216,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>19</v>
       </c>
       <c r="E55" s="21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F55" s="23">
         <v>0</v>
@@ -2229,6 +2244,9 @@
       </c>
       <c r="H55" s="23">
         <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4326,23 +4344,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4583,32 +4584,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4625,4 +4618,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437944D0-78E9-48CE-9287-E554586CD4F8}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEDD09C5-E94C-4632-A4A4-A627B5F6EA34}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Road</t>
   </si>
   <si>
-    <t>Capacity</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -188,15 +185,6 @@
     <t>How to deal with distinguishment between Timber and other?</t>
   </si>
   <si>
-    <t>Capacity increase</t>
-  </si>
-  <si>
-    <t>Investment cost</t>
-  </si>
-  <si>
-    <t>Lead time</t>
-  </si>
-  <si>
     <t>Capacity of -1 means infinite capacity</t>
   </si>
   <si>
@@ -221,12 +209,6 @@
     <t>Upgradeable</t>
   </si>
   <si>
-    <t>Upgrade cost</t>
-  </si>
-  <si>
-    <t>Upgrade lead time</t>
-  </si>
-  <si>
     <t>Fill in data</t>
   </si>
   <si>
@@ -236,18 +218,9 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>Max_station_dist</t>
-  </si>
-  <si>
     <t>Trucks_filled_daily</t>
   </si>
   <si>
-    <t>Station_cost</t>
-  </si>
-  <si>
-    <t>Ledetid</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
@@ -288,6 +261,33 @@
   </si>
   <si>
     <t>out of scope, list as infinite capacity</t>
+  </si>
+  <si>
+    <t>Investment cost (NOK)</t>
+  </si>
+  <si>
+    <t>Lead time (years)</t>
+  </si>
+  <si>
+    <t>Capacity increase (tonnes)</t>
+  </si>
+  <si>
+    <t>Capacity (tonnes)</t>
+  </si>
+  <si>
+    <t>Upgrade cost (NOK)</t>
+  </si>
+  <si>
+    <t>Upgrade lead time (years)</t>
+  </si>
+  <si>
+    <t>Max_station_dist_km</t>
+  </si>
+  <si>
+    <t>Station_cost_NOK</t>
+  </si>
+  <si>
+    <t>Ledetid_year</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -748,31 +748,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -902,10 +902,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>13</v>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -950,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1023,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>13</v>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1074,10 +1074,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>13</v>
@@ -1100,10 +1100,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>13</v>
@@ -1126,10 +1126,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>13</v>
@@ -1152,10 +1152,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>13</v>
@@ -1178,10 +1178,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>13</v>
@@ -1204,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>13</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1393,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="3"/>
@@ -1428,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1556,10 +1556,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>11</v>
@@ -1588,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1615,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>11</v>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -1645,10 +1645,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>11</v>
@@ -1672,10 +1672,10 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>11</v>
@@ -1698,10 +1698,10 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>11</v>
@@ -1724,10 +1724,10 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>11</v>
@@ -1747,10 +1747,10 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>11</v>
@@ -1770,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="14">
         <v>19498000</v>
@@ -1797,13 +1797,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="14">
         <v>38407000</v>
@@ -1826,13 +1826,13 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="14">
         <v>9708000</v>
@@ -1853,13 +1853,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="14">
         <v>22902000</v>
@@ -1880,13 +1880,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="14">
         <v>100114000</v>
@@ -1907,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="34">
         <v>18310000</v>
@@ -1934,13 +1934,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="14">
         <v>18310000</v>
@@ -1961,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="14">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="14">
         <v>7806000</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="14">
         <v>52811000</v>
@@ -2039,13 +2039,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="34">
         <v>9510000</v>
@@ -2066,13 +2066,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="14">
         <v>9510000</v>
@@ -2092,13 +2092,13 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="34">
         <v>9510000</v>
@@ -2118,13 +2118,13 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="34">
         <v>9510000</v>
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,13 +2147,13 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="34">
         <v>9510000</v>
@@ -2173,13 +2173,13 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>-1</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2199,13 +2199,13 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>-1</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2225,13 +2225,13 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="21">
         <v>-1</v>
@@ -2246,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2260,7 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,16 +2285,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>10</v>
@@ -2303,34 +2303,34 @@
         <v>12</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2396,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2500,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2523,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2604,10 +2604,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2656,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2679,13 +2679,13 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2705,13 +2705,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2731,13 +2731,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -3046,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -3228,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -3254,7 +3254,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3277,10 +3277,10 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -3303,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -3332,7 +3332,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -3358,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -3381,10 +3381,10 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -3407,10 +3407,10 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
         <v>45</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -3735,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -3829,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -3923,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -3984,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -4067,10 +4067,10 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4107,10 +4107,10 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
         <v>45</v>
-      </c>
-      <c r="D59" t="s">
-        <v>46</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -4147,10 +4147,10 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -4175,13 +4175,13 @@
       <c r="M60" s="19"/>
       <c r="N60" s="11"/>
       <c r="O60" s="32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P60" s="3"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4194,14 +4194,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4211,19 +4211,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -4246,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4287,55 +4287,55 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4344,6 +4344,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4584,24 +4601,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4618,29 +4643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437944D0-78E9-48CE-9287-E554586CD4F8}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075D598E-6F5E-48E2-B451-0FDD4DEDA714}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="6590" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="84">
   <si>
     <t>Oslo</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>out of scope, list as infinite capacity</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
   </si>
 </sst>
 </file>
@@ -727,26 +730,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
@@ -777,7 +780,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -801,7 +804,7 @@
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -825,7 +828,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -849,7 +852,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -897,7 +900,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -921,7 +924,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -945,7 +948,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -969,7 +972,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -993,7 +996,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="I11" s="12"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="I12" s="20"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1095,7 +1098,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1121,7 +1124,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1147,7 +1150,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1173,7 +1176,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1199,7 +1202,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1259,7 +1262,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1324,7 +1327,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1356,7 +1359,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1388,7 +1391,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1423,7 +1426,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1455,7 +1458,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1519,7 +1522,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1583,7 +1586,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1610,7 +1613,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1640,7 +1643,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1821,7 +1824,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1848,7 +1851,7 @@
       </c>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1956,7 +1959,7 @@
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2007,7 +2010,7 @@
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2034,7 +2037,7 @@
       </c>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2061,7 +2064,7 @@
       </c>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2263,27 +2266,27 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3476,7 +3479,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3519,7 +3522,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3562,7 +3565,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3648,7 +3651,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3691,7 +3694,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3785,7 +3788,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3879,7 +3882,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3930,7 +3933,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3973,7 +3976,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>10</v>
       </c>
@@ -4016,7 +4019,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4059,7 +4062,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4099,7 +4102,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4139,7 +4142,7 @@
       <c r="O59" s="18"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="O62" t="s">
         <v>75</v>
       </c>
@@ -4194,19 +4197,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -4225,8 +4228,11 @@
       <c r="F1" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4245,11 +4251,14 @@
       <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
       <c r="H2" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4267,6 +4276,9 @@
       </c>
       <c r="F3">
         <v>5</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -4283,14 +4295,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
@@ -4298,42 +4310,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>63</v>
       </c>
@@ -4344,6 +4356,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4584,15 +4605,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4602,6 +4614,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4616,14 +4636,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEDD09C5-E94C-4632-A4A4-A627B5F6EA34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7533FD4-2A0E-4671-AE97-CCBF20AF3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="81">
   <si>
     <t>Oslo</t>
   </si>
@@ -254,15 +254,6 @@
     <t>we removed biogas with max distance of 300km, 180 trucks filled dauly, and station cost of 20M, ledetid 5</t>
   </si>
   <si>
-    <t>Ingen bane!</t>
-  </si>
-  <si>
-    <t>We need to define for sweden as well</t>
-  </si>
-  <si>
-    <t>out of scope, list as infinite capacity</t>
-  </si>
-  <si>
     <t>Investment cost (NOK)</t>
   </si>
   <si>
@@ -288,6 +279,9 @@
   </si>
   <si>
     <t>Ledetid_year</t>
+  </si>
+  <si>
+    <t>We now assume infinite capacity in foreign harbors, as well as on the continental shelf "harbor"</t>
   </si>
 </sst>
 </file>
@@ -298,18 +292,11 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,12 +396,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +422,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,48 +454,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,57 +708,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -787,7 +768,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2">
@@ -799,9 +780,9 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -811,7 +792,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E3">
@@ -823,9 +804,9 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -835,7 +816,7 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E4">
@@ -847,9 +828,9 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -859,7 +840,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5">
@@ -871,9 +852,9 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -883,7 +864,7 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E6">
@@ -895,9 +876,9 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -907,7 +888,7 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E7">
@@ -919,9 +900,9 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -931,7 +912,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E8">
@@ -943,9 +924,9 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -955,7 +936,7 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9">
@@ -967,9 +948,9 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -979,21 +960,22 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1003,22 +985,23 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
+      <c r="D11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="9"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1028,22 +1011,23 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20"/>
+      <c r="D12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="16"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1053,23 +1037,24 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1079,23 +1064,24 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="20"/>
+      <c r="D14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1105,23 +1091,24 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
+      <c r="D15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1131,23 +1118,24 @@
       <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
+      <c r="D16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1157,23 +1145,24 @@
       <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1183,23 +1172,24 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
+      <c r="D18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="20"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1209,23 +1199,24 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="15"/>
+      <c r="D19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1235,23 +1226,23 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
-        <f>6365000+380000</f>
-        <v>6745000</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="23">
+        <f>6365000+380333</f>
+        <v>6745333</v>
+      </c>
+      <c r="F20" s="23">
         <v>700000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="23">
         <v>737100000</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="23">
         <v>5</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1259,7 +1250,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1269,30 +1260,30 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="23">
         <v>56000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="23">
         <v>200000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="23">
         <v>210600000</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="23">
         <v>5</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1302,29 +1293,29 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="23">
         <v>475000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="23">
         <v>200000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="23">
         <v>210600000</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="23">
         <v>5</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="3"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1334,29 +1325,29 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="23">
         <v>1425000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="23">
         <v>500000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="23">
         <v>526500000</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="23">
         <v>5</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1366,29 +1357,29 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="23">
         <v>1377500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="24">
         <v>500000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="24">
         <v>526500000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="23">
         <v>5</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="3"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1398,32 +1389,28 @@
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="33">
-        <v>5</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="17"/>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="3"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1433,29 +1420,29 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="23">
         <v>285000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="24">
         <v>200000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="24">
         <v>210600000</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="23">
         <v>5</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="3"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1465,29 +1452,29 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="23">
         <v>1785000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="24">
         <v>200000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="24">
         <v>210600000</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="23">
         <v>5</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="3"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1497,29 +1484,29 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="23">
         <v>1330000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="24">
         <v>500000</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="24">
         <v>526500000</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="23">
         <v>5</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1529,29 +1516,31 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
-        <v>1780300</v>
-      </c>
-      <c r="F29" s="3">
-        <v>500000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>526500000</v>
-      </c>
-      <c r="H29">
+      <c r="E29" s="23">
+        <v>279300</v>
+      </c>
+      <c r="F29" s="23">
+        <f>285000*(E29/(E29+E30))</f>
+        <v>44711.846318036289</v>
+      </c>
+      <c r="G29" s="23">
+        <f>F29*2000</f>
+        <v>89423692.636072576</v>
+      </c>
+      <c r="H29" s="23">
         <v>5</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1561,29 +1550,31 @@
       <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23">
-        <v>1780300</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="E30" s="25">
+        <v>1501000</v>
+      </c>
+      <c r="F30" s="23">
+        <f>285000*(E30/(E30+E29))</f>
+        <v>240288.15368196371</v>
+      </c>
+      <c r="G30" s="23">
+        <f>F30*2000</f>
+        <v>480576307.36392742</v>
+      </c>
+      <c r="H30" s="26">
         <v>5</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="3"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1593,24 +1584,25 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
         <v>1000000</v>
       </c>
-      <c r="F31" s="3">
-        <v>200000</v>
-      </c>
-      <c r="G31" s="3">
-        <v>210600000</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="23">
+        <f>F31*2000</f>
+        <v>2000000000</v>
+      </c>
+      <c r="H31" s="23">
         <v>5</v>
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1620,27 +1612,23 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-      <c r="H32" s="33">
-        <v>5</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="11"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1650,10 +1638,10 @@
       <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="23">
         <v>5000000</v>
       </c>
       <c r="F33" s="23">
@@ -1662,12 +1650,10 @@
       <c r="G33" s="23">
         <v>0</v>
       </c>
-      <c r="H33" s="23">
-        <v>5</v>
-      </c>
+      <c r="H33" s="23"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1677,23 +1663,21 @@
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="23">
         <v>5000000</v>
       </c>
       <c r="F34" s="23">
         <v>0</v>
       </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1703,10 +1687,10 @@
       <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="23">
         <v>5000000</v>
       </c>
       <c r="F35" s="23">
@@ -1715,11 +1699,9 @@
       <c r="G35" s="23">
         <v>0</v>
       </c>
-      <c r="H35" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1729,20 +1711,21 @@
       <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1752,20 +1735,21 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="22">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1775,24 +1759,26 @@
       <c r="C38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="27">
         <v>19498000</v>
       </c>
-      <c r="F38">
-        <v>5849000</v>
-      </c>
-      <c r="G38">
-        <v>523021000</v>
-      </c>
-      <c r="H38">
+      <c r="F38" s="23">
+        <f>E38*0.3</f>
+        <v>5849400</v>
+      </c>
+      <c r="G38" s="23">
+        <f>F38*89.4134477825465</f>
+        <v>523015021.4592275</v>
+      </c>
+      <c r="H38" s="23">
         <v>5</v>
       </c>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1802,26 +1788,28 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="27">
         <v>38407000</v>
       </c>
-      <c r="F39">
-        <v>11522000</v>
-      </c>
-      <c r="G39">
-        <v>1030229000</v>
-      </c>
-      <c r="H39">
+      <c r="F39" s="23">
+        <f>E39*0.3</f>
+        <v>11522100</v>
+      </c>
+      <c r="G39" s="23">
+        <f>F39*89.4134477825465</f>
+        <v>1030230686.695279</v>
+      </c>
+      <c r="H39" s="23">
         <v>5</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1831,24 +1819,26 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="27">
         <v>9708000</v>
       </c>
-      <c r="F40">
-        <v>2912000</v>
-      </c>
-      <c r="G40">
-        <v>260408000</v>
-      </c>
-      <c r="H40">
+      <c r="F40" s="23">
+        <f>E40*0.3</f>
+        <v>2912400</v>
+      </c>
+      <c r="G40" s="23">
+        <f t="shared" ref="G40:G50" si="0">F40*89.4134477825465</f>
+        <v>260407725.32188842</v>
+      </c>
+      <c r="H40" s="23">
         <v>5</v>
       </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1858,24 +1848,26 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="27">
         <v>22902000</v>
       </c>
-      <c r="F41">
-        <v>6870000</v>
-      </c>
-      <c r="G41">
-        <v>614315000</v>
-      </c>
-      <c r="H41">
+      <c r="F41" s="23">
+        <f>E41*0.3</f>
+        <v>6870600</v>
+      </c>
+      <c r="G41" s="23">
+        <f t="shared" si="0"/>
+        <v>614324034.334764</v>
+      </c>
+      <c r="H41" s="23">
         <v>5</v>
       </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1885,24 +1877,26 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="14">
-        <v>100114000</v>
-      </c>
-      <c r="F42">
-        <v>30034000</v>
-      </c>
-      <c r="G42">
-        <v>2685461000</v>
-      </c>
-      <c r="H42">
+      <c r="E42" s="27">
+        <v>89086482</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" ref="F42:F50" si="1">E42*0.3</f>
+        <v>26725944.599999998</v>
+      </c>
+      <c r="G42" s="23">
+        <f t="shared" si="0"/>
+        <v>2389658851.9313302</v>
+      </c>
+      <c r="H42" s="23">
         <v>5</v>
       </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1912,24 +1906,26 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="34">
-        <v>18310000</v>
+      <c r="E43" s="25">
+        <v>11027514</v>
       </c>
       <c r="F43" s="23">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3308254.1999999997</v>
       </c>
       <c r="G43" s="23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>295802414.16309011</v>
       </c>
       <c r="H43" s="23">
         <v>5</v>
       </c>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1939,24 +1935,26 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="27">
         <v>18310000</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="23">
+        <f t="shared" si="1"/>
         <v>5493000</v>
       </c>
-      <c r="G44">
-        <v>491148000</v>
-      </c>
-      <c r="H44">
+      <c r="G44" s="23">
+        <f t="shared" si="0"/>
+        <v>491148068.66952789</v>
+      </c>
+      <c r="H44" s="23">
         <v>5</v>
       </c>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1966,21 +1964,24 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="27">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1990,24 +1991,26 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="27">
         <v>7806000</v>
       </c>
-      <c r="F46">
-        <v>2342000</v>
-      </c>
-      <c r="G46">
-        <v>209400000</v>
-      </c>
-      <c r="H46">
+      <c r="F46" s="23">
+        <f t="shared" si="1"/>
+        <v>2341800</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="0"/>
+        <v>209388412.01716739</v>
+      </c>
+      <c r="H46" s="23">
         <v>5</v>
       </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2017,24 +2020,26 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="14">
-        <v>52811000</v>
-      </c>
-      <c r="F47">
-        <v>15843000</v>
-      </c>
-      <c r="G47">
-        <v>1416610000</v>
-      </c>
-      <c r="H47">
+      <c r="E47" s="27">
+        <v>12157843.5</v>
+      </c>
+      <c r="F47" s="23">
+        <f t="shared" si="1"/>
+        <v>3647353.05</v>
+      </c>
+      <c r="G47" s="23">
+        <f t="shared" si="0"/>
+        <v>326122411.48068666</v>
+      </c>
+      <c r="H47" s="23">
         <v>5</v>
       </c>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2044,24 +2049,26 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="34">
-        <v>9510000</v>
+      <c r="E48" s="25">
+        <v>40653361.5</v>
       </c>
       <c r="F48" s="23">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12196008.449999999</v>
       </c>
       <c r="G48" s="23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1090487164.6995709</v>
       </c>
       <c r="H48" s="23">
         <v>5</v>
       </c>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2071,23 +2078,25 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="14">
-        <v>9510000</v>
-      </c>
-      <c r="F49">
-        <v>2853000</v>
-      </c>
-      <c r="G49">
-        <v>255092000</v>
-      </c>
-      <c r="H49">
+      <c r="E49" s="27">
+        <v>2451538.5</v>
+      </c>
+      <c r="F49" s="23">
+        <f t="shared" si="1"/>
+        <v>735461.54999999993</v>
+      </c>
+      <c r="G49" s="23">
+        <f t="shared" si="0"/>
+        <v>65760152.896995701</v>
+      </c>
+      <c r="H49" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2097,23 +2106,25 @@
       <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="34">
-        <v>9510000</v>
+      <c r="E50" s="25">
+        <v>7058274</v>
       </c>
       <c r="F50" s="23">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2117482.1999999997</v>
       </c>
       <c r="G50" s="23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>189331384.12017167</v>
       </c>
       <c r="H50" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2123,11 +2134,11 @@
       <c r="C51" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="34">
-        <v>9510000</v>
+      <c r="E51" s="25">
+        <v>-1</v>
       </c>
       <c r="F51" s="23">
         <v>0</v>
@@ -2135,14 +2146,9 @@
       <c r="G51" s="23">
         <v>0</v>
       </c>
-      <c r="H51" s="23">
-        <v>5</v>
-      </c>
-      <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2152,11 +2158,11 @@
       <c r="C52" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="34">
-        <v>9510000</v>
+      <c r="E52" s="25">
+        <v>-1</v>
       </c>
       <c r="F52" s="23">
         <v>0</v>
@@ -2164,11 +2170,9 @@
       <c r="G52" s="23">
         <v>0</v>
       </c>
-      <c r="H52" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2178,23 +2182,21 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E53">
-        <v>-1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2204,23 +2206,21 @@
       <c r="C54" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E54">
-        <v>-1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2230,10 +2230,10 @@
       <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="25">
         <v>-1</v>
       </c>
       <c r="F55" s="23">
@@ -2242,12 +2242,7 @@
       <c r="G55" s="23">
         <v>0</v>
       </c>
-      <c r="H55" s="23">
-        <v>5</v>
-      </c>
-      <c r="I55" t="s">
-        <v>73</v>
-      </c>
+      <c r="H55" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,81 +2254,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2385,7 +2380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2411,7 +2406,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2489,7 +2484,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2515,7 +2510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2541,7 +2536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2619,7 +2614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2671,7 +2666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2697,7 +2692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2723,7 +2718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2749,7 +2744,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2775,7 +2770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2801,7 +2796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2827,7 +2822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2853,7 +2848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2879,7 +2874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2905,7 +2900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2957,7 +2952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2983,7 +2978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3035,7 +3030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3087,7 +3082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3139,7 +3134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3217,7 +3212,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3243,7 +3238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3269,7 +3264,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3295,7 +3290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3321,7 +3316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3347,7 +3342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3373,7 +3368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3399,7 +3394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3424,7 +3419,7 @@
       <c r="H43">
         <v>-1</v>
       </c>
-      <c r="L43" s="15"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3433,7 +3428,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3455,7 +3450,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="28">
         <v>1600000</v>
       </c>
       <c r="I44" s="3">
@@ -3468,15 +3463,15 @@
         <v>10</v>
       </c>
       <c r="L44" s="3"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="18"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3498,7 +3493,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="28">
         <v>1500000</v>
       </c>
       <c r="I45" s="3">
@@ -3511,15 +3506,15 @@
         <v>10</v>
       </c>
       <c r="L45" s="3"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="18"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3541,7 +3536,7 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="28">
         <v>1250000</v>
       </c>
       <c r="I46" s="3">
@@ -3554,15 +3549,15 @@
         <v>10</v>
       </c>
       <c r="L46" s="3"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="18"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3584,7 +3579,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="28">
         <v>1250000</v>
       </c>
       <c r="I47" s="3">
@@ -3598,14 +3593,14 @@
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="18"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3627,7 +3622,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="28">
         <v>1000000</v>
       </c>
       <c r="I48" s="3">
@@ -3641,14 +3636,14 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="18"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3670,7 +3665,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="28">
         <v>1250000</v>
       </c>
       <c r="I49" s="3">
@@ -3684,14 +3679,14 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="18"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3713,13 +3708,13 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="28">
         <v>250000</v>
       </c>
       <c r="I50" s="3">
         <v>250000</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="31">
         <v>50000000</v>
       </c>
       <c r="K50" s="3">
@@ -3728,13 +3723,13 @@
       <c r="L50" s="3">
         <v>1</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="21">
         <v>1100000000</v>
       </c>
       <c r="N50" s="3">
         <v>6</v>
       </c>
-      <c r="O50" s="24" t="s">
+      <c r="O50" s="17" t="s">
         <v>63</v>
       </c>
       <c r="P50" s="3"/>
@@ -3742,7 +3737,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3764,7 +3759,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="28">
         <v>1600000</v>
       </c>
       <c r="I51" s="3">
@@ -3777,15 +3772,15 @@
         <v>10</v>
       </c>
       <c r="L51" s="3"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="17"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3807,28 +3802,26 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="28">
         <v>250000</v>
       </c>
-      <c r="I52" s="7">
-        <v>250000</v>
-      </c>
-      <c r="J52" s="7">
-        <v>50000000</v>
-      </c>
-      <c r="K52" s="7">
-        <v>10</v>
-      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3">
         <v>1</v>
       </c>
-      <c r="M52" s="27">
+      <c r="M52" s="21">
         <v>4050000000</v>
       </c>
       <c r="N52" s="3">
         <v>6</v>
       </c>
-      <c r="O52" s="24" t="s">
+      <c r="O52" s="17" t="s">
         <v>63</v>
       </c>
       <c r="P52" s="3"/>
@@ -3836,7 +3829,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3858,7 +3851,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="28">
         <v>800000</v>
       </c>
       <c r="I53" s="3">
@@ -3871,15 +3864,15 @@
         <v>10</v>
       </c>
       <c r="L53" s="3"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="24"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="17"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3901,7 +3894,7 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="28">
         <v>650000</v>
       </c>
       <c r="I54" s="3">
@@ -3916,13 +3909,13 @@
       <c r="L54" s="3">
         <v>1</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="21">
         <v>7000000000</v>
       </c>
       <c r="N54" s="3">
         <v>6</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="O54" s="17" t="s">
         <v>63</v>
       </c>
       <c r="P54" s="3"/>
@@ -3930,7 +3923,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3952,28 +3945,27 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="28">
         <v>250000</v>
       </c>
       <c r="I55" s="3">
         <v>250000</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="31">
         <v>50000000</v>
       </c>
       <c r="K55" s="3">
         <v>10</v>
       </c>
       <c r="L55" s="3"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="18"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3995,7 +3987,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="29">
         <v>0</v>
       </c>
       <c r="I56" s="3">
@@ -4008,15 +4000,14 @@
         <v>17</v>
       </c>
       <c r="L56" s="3"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="18"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4038,28 +4029,25 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>250000</v>
-      </c>
-      <c r="J57" s="7">
-        <v>50000000</v>
-      </c>
-      <c r="K57" s="7">
-        <v>10</v>
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="18"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4081,7 +4069,7 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="28">
         <v>950000</v>
       </c>
       <c r="I58" s="3">
@@ -4093,13 +4081,13 @@
       <c r="K58" s="3">
         <v>10</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4121,25 +4109,22 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="28">
         <v>2000000</v>
       </c>
-      <c r="I59" s="7">
-        <v>650000</v>
-      </c>
-      <c r="J59" s="7">
-        <v>137500000</v>
-      </c>
-      <c r="K59" s="7">
-        <v>10</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="18"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4161,25 +4146,24 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="20">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-      <c r="K60" s="24"/>
+      <c r="H60" s="30">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
       <c r="L60" s="3"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="32" t="s">
+      <c r="M60" s="15"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="20" t="s">
         <v>65</v>
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O62" t="s">
         <v>66</v>
       </c>
@@ -4194,39 +4178,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4245,11 +4229,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4280,61 +4264,66 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4344,23 +4333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4601,32 +4573,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4643,4 +4607,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEDD09C5-E94C-4632-A4A4-A627B5F6EA34}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{CC5B5A6A-F206-4538-8C7D-60B55F67A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CB2B2C-28F3-4EFE-9BEE-5E14FDC6A945}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="85">
   <si>
     <t>Oslo</t>
   </si>
@@ -287,7 +287,13 @@
     <t>Station_cost_NOK</t>
   </si>
   <si>
-    <t>Ledetid_year</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>we removed the lead time. Only in the first time period we might want to add a hard constraint that captures that it takes some time to create an initial infrastructure</t>
+  </si>
+  <si>
+    <t>the blue values are interpolated</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +458,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,6 +528,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4192,21 +4213,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -4214,59 +4235,322 @@
         <v>58</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="35">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="35">
         <v>150</v>
       </c>
-      <c r="D2">
-        <v>360</v>
-      </c>
-      <c r="E2">
-        <v>40000000</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="35">
+        <v>110</v>
+      </c>
+      <c r="F2" s="35">
+        <v>48550</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2034</v>
+      </c>
+      <c r="D3" s="35">
+        <v>150</v>
+      </c>
+      <c r="E3" s="35">
+        <v>166</v>
+      </c>
+      <c r="F3" s="35">
+        <v>25920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2050</v>
+      </c>
+      <c r="D4" s="35">
+        <v>150</v>
+      </c>
+      <c r="E4" s="35">
+        <v>166</v>
+      </c>
+      <c r="F4" s="35">
+        <v>25920</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="36">
+        <v>2026</v>
+      </c>
+      <c r="D5" s="36">
+        <v>150</v>
+      </c>
+      <c r="E5" s="37">
+        <f>FORECAST($C5,E$2:E$4,$C$2:$C$4)</f>
+        <v>128.7341772151899</v>
+      </c>
+      <c r="F5" s="37">
+        <f>FORECAST($C5,F$2:F$4,$C$2:$C$4)</f>
+        <v>40979.385171790142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2028</v>
+      </c>
+      <c r="D6" s="36">
+        <v>150</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" ref="E6:F8" si="0">FORECAST($C6,E$2:E$4,$C$2:$C$4)</f>
+        <v>132.58227848101251</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="0"/>
+        <v>39424.339963833569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="36">
+        <v>150</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="0"/>
+        <v>136.43037974683511</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="0"/>
+        <v>37869.294755876996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="36">
+        <v>2040</v>
+      </c>
+      <c r="D8" s="36">
+        <v>150</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>155.67088607594906</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>30094.068716093898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C3">
+      <c r="C9" s="35">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="35">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="E9" s="35">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>2500000</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+      <c r="F9" s="35">
+        <v>46430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="35">
+        <v>2034</v>
+      </c>
+      <c r="D10" s="35">
+        <v>100</v>
+      </c>
+      <c r="E10" s="35">
+        <v>20</v>
+      </c>
+      <c r="F10" s="35">
+        <v>42000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="35">
+        <v>2050</v>
+      </c>
+      <c r="D11" s="35">
+        <v>100</v>
+      </c>
+      <c r="E11" s="35">
+        <v>20</v>
+      </c>
+      <c r="F11" s="35">
+        <v>37420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2026</v>
+      </c>
+      <c r="D12" s="36">
+        <v>100</v>
+      </c>
+      <c r="E12" s="37">
+        <f>FORECAST($C12,E$9:E$11,$C$9:$C$11)</f>
+        <v>13.345388788426703</v>
+      </c>
+      <c r="F12" s="37">
+        <f>FORECAST($C12,F$9:F$11,$C$9:$C$11)</f>
+        <v>45142.622061482864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="36">
+        <v>2028</v>
+      </c>
+      <c r="D13" s="36">
+        <v>100</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" ref="E13:F15" si="1">FORECAST($C13,E$9:E$11,$C$9:$C$11)</f>
+        <v>14.032549728752201</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="1"/>
+        <v>44482.079566003638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="36">
+        <v>100</v>
+      </c>
+      <c r="E14" s="37">
+        <f t="shared" si="1"/>
+        <v>14.719710669077699</v>
+      </c>
+      <c r="F14" s="37">
+        <f t="shared" si="1"/>
+        <v>43821.537070524413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2040</v>
+      </c>
+      <c r="D15" s="36">
+        <v>100</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="1"/>
+        <v>18.155515370705189</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" si="1"/>
+        <v>40518.824593128404</v>
       </c>
     </row>
   </sheetData>
@@ -4344,14 +4628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4360,7 +4636,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4601,24 +4877,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4626,7 +4893,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4643,4 +4910,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7533FD4-2A0E-4671-AE97-CCBF20AF3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7533FD4-2A0E-4671-AE97-CCBF20AF3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706DCA58-8010-4862-9022-F66F030C4025}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="83">
   <si>
     <t>Oslo</t>
   </si>
@@ -278,10 +278,16 @@
     <t>Station_cost_NOK</t>
   </si>
   <si>
-    <t>Ledetid_year</t>
-  </si>
-  <si>
     <t>We now assume infinite capacity in foreign harbors, as well as on the continental shelf "harbor"</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>we removed the lead time. Only in the first time period we might want to add a hard constraint that captures that it takes some time to create an initial infrastructure</t>
+  </si>
+  <si>
+    <t>the blue values are interpolated</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +444,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,16 +499,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,26 +725,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -758,7 +775,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -782,7 +799,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -806,7 +823,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -830,7 +847,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -854,7 +871,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -878,7 +895,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -902,7 +919,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -926,7 +943,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -950,7 +967,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -960,22 +977,21 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="D10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -985,23 +1001,22 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23"/>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1011,23 +1026,22 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1037,24 +1051,23 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="16"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1064,24 +1077,23 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23"/>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="16"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1091,24 +1103,23 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="D15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="16"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1118,24 +1129,23 @@
       <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23"/>
+      <c r="D16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="16"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1145,24 +1155,23 @@
       <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23"/>
+      <c r="D17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="16"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1172,24 +1181,23 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23"/>
+      <c r="D18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="16"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1199,24 +1207,23 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="D19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1226,20 +1233,20 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20">
         <f>6365000+380333</f>
         <v>6745333</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20">
         <v>700000</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20">
         <v>737100000</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20">
         <v>5</v>
       </c>
       <c r="I20" s="9"/>
@@ -1250,7 +1257,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1260,19 +1267,19 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21">
         <v>56000</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21">
         <v>200000</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21">
         <v>210600000</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" s="9"/>
@@ -1283,7 +1290,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1293,19 +1300,19 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22">
         <v>475000</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22">
         <v>200000</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22">
         <v>210600000</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22">
         <v>5</v>
       </c>
       <c r="J22" s="13"/>
@@ -1315,7 +1322,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1325,19 +1332,19 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23">
         <v>1425000</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23">
         <v>500000</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23">
         <v>526500000</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23">
         <v>5</v>
       </c>
       <c r="J23" s="13"/>
@@ -1347,7 +1354,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1357,19 +1364,19 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24">
         <v>1377500</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="3">
         <v>500000</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="3">
         <v>526500000</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24">
         <v>5</v>
       </c>
       <c r="J24" s="13"/>
@@ -1379,7 +1386,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1389,19 +1396,19 @@
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26"/>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="I25" s="11"/>
       <c r="J25" s="13"/>
       <c r="K25" s="3"/>
@@ -1410,7 +1417,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1420,19 +1427,19 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26">
         <v>285000</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="3">
         <v>200000</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="3">
         <v>210600000</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26">
         <v>5</v>
       </c>
       <c r="J26" s="13"/>
@@ -1442,7 +1449,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1452,19 +1459,19 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27">
         <v>1785000</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="3">
         <v>200000</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="3">
         <v>210600000</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27">
         <v>5</v>
       </c>
       <c r="J27" s="13"/>
@@ -1474,7 +1481,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1484,19 +1491,19 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28">
         <v>1330000</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="3">
         <v>500000</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="3">
         <v>526500000</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28">
         <v>5</v>
       </c>
       <c r="J28" s="13"/>
@@ -1506,7 +1513,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1516,21 +1523,21 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29">
         <v>279300</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29">
         <f>285000*(E29/(E29+E30))</f>
         <v>44711.846318036289</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29">
         <f>F29*2000</f>
         <v>89423692.636072576</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29">
         <v>5</v>
       </c>
       <c r="J29" s="13"/>
@@ -1540,7 +1547,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1550,21 +1557,21 @@
       <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="21">
         <v>1501000</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30">
         <f>285000*(E30/(E30+E29))</f>
         <v>240288.15368196371</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30">
         <f>F30*2000</f>
         <v>480576307.36392742</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="22">
         <v>5</v>
       </c>
       <c r="J30" s="13"/>
@@ -1574,7 +1581,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1584,25 +1591,25 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1000000</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31">
         <f>F31*2000</f>
         <v>2000000000</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31">
         <v>5</v>
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1612,23 +1619,23 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26"/>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22"/>
       <c r="I32" s="11"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1638,22 +1645,21 @@
       <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33">
         <v>5000000</v>
       </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23"/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1663,21 +1669,21 @@
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34">
         <v>5000000</v>
       </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1687,21 +1693,20 @@
       <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35">
         <v>5000000</v>
       </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1711,21 +1716,20 @@
       <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1735,21 +1739,20 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="25">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1759,26 +1762,26 @@
       <c r="C38" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="23">
         <v>19498000</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38">
         <f>E38*0.3</f>
         <v>5849400</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38">
         <f>F38*89.4134477825465</f>
         <v>523015021.4592275</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38">
         <v>5</v>
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1788,28 +1791,28 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="23">
         <v>38407000</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39">
         <f>E39*0.3</f>
         <v>11522100</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39">
         <f>F39*89.4134477825465</f>
         <v>1030230686.695279</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39">
         <v>5</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1819,26 +1822,26 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="23">
         <v>9708000</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40">
         <f>E40*0.3</f>
         <v>2912400</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40">
         <f t="shared" ref="G40:G50" si="0">F40*89.4134477825465</f>
         <v>260407725.32188842</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40">
         <v>5</v>
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1848,26 +1851,26 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="23">
         <v>22902000</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41">
         <f>E41*0.3</f>
         <v>6870600</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>614324034.334764</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41">
         <v>5</v>
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1877,26 +1880,26 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="23">
         <v>89086482</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42">
         <f t="shared" ref="F42:F50" si="1">E42*0.3</f>
         <v>26725944.599999998</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42">
         <f t="shared" si="0"/>
         <v>2389658851.9313302</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42">
         <v>5</v>
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1906,26 +1909,26 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="21">
         <v>11027514</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>3308254.1999999997</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43">
         <f t="shared" si="0"/>
         <v>295802414.16309011</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43">
         <v>5</v>
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1935,26 +1938,26 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="23">
         <v>18310000</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>5493000</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44">
         <f t="shared" si="0"/>
         <v>491148068.66952789</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44">
         <v>5</v>
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1964,24 +1967,23 @@
       <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="27">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="23"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1991,26 +1993,26 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="23">
         <v>7806000</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>2341800</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46">
         <f t="shared" si="0"/>
         <v>209388412.01716739</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46">
         <v>5</v>
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2020,26 +2022,26 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="23">
         <v>12157843.5</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>3647353.05</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47">
         <f t="shared" si="0"/>
         <v>326122411.48068666</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47">
         <v>5</v>
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2049,26 +2051,26 @@
       <c r="C48" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="21">
         <v>40653361.5</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>12196008.449999999</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48">
         <f t="shared" si="0"/>
         <v>1090487164.6995709</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48">
         <v>5</v>
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2078,25 +2080,25 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="23">
         <v>2451538.5</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>735461.54999999993</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49">
         <f t="shared" si="0"/>
         <v>65760152.896995701</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2106,25 +2108,25 @@
       <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="21">
         <v>7058274</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>2117482.1999999997</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50">
         <f t="shared" si="0"/>
         <v>189331384.12017167</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2134,21 +2136,20 @@
       <c r="C51" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="21">
+        <v>-1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2158,21 +2159,20 @@
       <c r="C52" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="21">
+        <v>-1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2182,21 +2182,20 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2206,21 +2205,20 @@
       <c r="C54" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>-1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2230,19 +2228,18 @@
       <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23"/>
+      <c r="E55" s="21">
+        <v>-1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,27 +2255,27 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2354,7 +2351,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2406,7 +2403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2640,7 +2637,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2796,7 +2793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2822,7 +2819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2978,7 +2975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3004,7 +3001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3056,7 +3053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3108,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3186,7 +3183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3342,7 +3339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3394,7 +3391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3428,7 +3425,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3450,7 +3447,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="24">
         <v>1600000</v>
       </c>
       <c r="I44" s="3">
@@ -3471,7 +3468,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3493,7 +3490,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="24">
         <v>1500000</v>
       </c>
       <c r="I45" s="3">
@@ -3514,7 +3511,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3536,7 +3533,7 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="24">
         <v>1250000</v>
       </c>
       <c r="I46" s="3">
@@ -3557,7 +3554,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3579,7 +3576,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="24">
         <v>1250000</v>
       </c>
       <c r="I47" s="3">
@@ -3600,7 +3597,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3622,7 +3619,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="24">
         <v>1000000</v>
       </c>
       <c r="I48" s="3">
@@ -3643,7 +3640,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3665,7 +3662,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="24">
         <v>1250000</v>
       </c>
       <c r="I49" s="3">
@@ -3686,7 +3683,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3708,13 +3705,13 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="24">
         <v>250000</v>
       </c>
       <c r="I50" s="3">
         <v>250000</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="27">
         <v>50000000</v>
       </c>
       <c r="K50" s="3">
@@ -3737,7 +3734,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3759,7 +3756,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="24">
         <v>1600000</v>
       </c>
       <c r="I51" s="3">
@@ -3780,7 +3777,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3802,7 +3799,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="24">
         <v>250000</v>
       </c>
       <c r="I52" s="3">
@@ -3829,7 +3826,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3851,7 +3848,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="24">
         <v>800000</v>
       </c>
       <c r="I53" s="3">
@@ -3872,7 +3869,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3894,7 +3891,7 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="24">
         <v>650000</v>
       </c>
       <c r="I54" s="3">
@@ -3923,7 +3920,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3945,13 +3942,13 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="24">
         <v>250000</v>
       </c>
       <c r="I55" s="3">
         <v>250000</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="27">
         <v>50000000</v>
       </c>
       <c r="K55" s="3">
@@ -3965,7 +3962,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3987,7 +3984,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="25">
         <v>0</v>
       </c>
       <c r="I56" s="3">
@@ -4007,7 +4004,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4029,7 +4026,7 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="25">
         <v>0</v>
       </c>
       <c r="I57" s="3">
@@ -4047,7 +4044,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4069,7 +4066,7 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="24">
         <v>950000</v>
       </c>
       <c r="I58" s="3">
@@ -4087,7 +4084,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4109,7 +4106,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="24">
         <v>2000000</v>
       </c>
       <c r="I59" s="3">
@@ -4124,7 +4121,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4146,7 +4143,7 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="26">
         <v>0</v>
       </c>
       <c r="I60" s="3">
@@ -4163,7 +4160,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
         <v>66</v>
       </c>
@@ -4176,21 +4173,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -4198,59 +4195,322 @@
         <v>58</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="28">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="28">
         <v>150</v>
       </c>
-      <c r="D2">
-        <v>360</v>
-      </c>
-      <c r="E2">
-        <v>40000000</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="28">
+        <v>110</v>
+      </c>
+      <c r="F2" s="28">
+        <v>48550</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2034</v>
+      </c>
+      <c r="D3" s="28">
+        <v>150</v>
+      </c>
+      <c r="E3" s="28">
+        <v>166</v>
+      </c>
+      <c r="F3" s="28">
+        <v>25920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2050</v>
+      </c>
+      <c r="D4" s="28">
+        <v>150</v>
+      </c>
+      <c r="E4" s="28">
+        <v>166</v>
+      </c>
+      <c r="F4" s="28">
+        <v>25920</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2026</v>
+      </c>
+      <c r="D5" s="29">
+        <v>150</v>
+      </c>
+      <c r="E5" s="30">
+        <f>FORECAST($C5,E$2:E$4,$C$2:$C$4)</f>
+        <v>128.7341772151899</v>
+      </c>
+      <c r="F5" s="30">
+        <f>FORECAST($C5,F$2:F$4,$C$2:$C$4)</f>
+        <v>40979.385171790142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2028</v>
+      </c>
+      <c r="D6" s="29">
+        <v>150</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" ref="E6:F8" si="0">FORECAST($C6,E$2:E$4,$C$2:$C$4)</f>
+        <v>132.58227848101251</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>39424.339963833569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="29">
+        <v>150</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>136.43037974683511</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>37869.294755876996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2040</v>
+      </c>
+      <c r="D8" s="29">
+        <v>150</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="0"/>
+        <v>155.67088607594906</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>30094.068716093898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C3">
+      <c r="C9" s="28">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="28">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="E9" s="28">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>2500000</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
+      <c r="F9" s="28">
+        <v>46430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2034</v>
+      </c>
+      <c r="D10" s="28">
+        <v>100</v>
+      </c>
+      <c r="E10" s="28">
+        <v>20</v>
+      </c>
+      <c r="F10" s="28">
+        <v>42000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2050</v>
+      </c>
+      <c r="D11" s="28">
+        <v>100</v>
+      </c>
+      <c r="E11" s="28">
+        <v>20</v>
+      </c>
+      <c r="F11" s="28">
+        <v>37420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2026</v>
+      </c>
+      <c r="D12" s="29">
+        <v>100</v>
+      </c>
+      <c r="E12" s="30">
+        <f>FORECAST($C12,E$9:E$11,$C$9:$C$11)</f>
+        <v>13.345388788426703</v>
+      </c>
+      <c r="F12" s="30">
+        <f>FORECAST($C12,F$9:F$11,$C$9:$C$11)</f>
+        <v>45142.622061482864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2028</v>
+      </c>
+      <c r="D13" s="29">
+        <v>100</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" ref="E13:F15" si="1">FORECAST($C13,E$9:E$11,$C$9:$C$11)</f>
+        <v>14.032549728752201</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="1"/>
+        <v>44482.079566003638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="29">
+        <v>100</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="1"/>
+        <v>14.719710669077699</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="1"/>
+        <v>43821.537070524413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2040</v>
+      </c>
+      <c r="D15" s="29">
+        <v>100</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="1"/>
+        <v>18.155515370705189</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="1"/>
+        <v>40518.824593128404</v>
       </c>
     </row>
   </sheetData>
@@ -4267,14 +4527,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -4282,47 +4542,47 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>57</v>
       </c>
@@ -4333,6 +4593,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4573,24 +4850,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4607,29 +4892,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonamar\Documents\04_Papers\Paper IV\Invest_capacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7533FD4-2A0E-4671-AE97-CCBF20AF3B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706DCA58-8010-4862-9022-F66F030C4025}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFE2030-2E27-40C7-BB93-12FB8D99A0E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="15996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -20,17 +20,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -472,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -503,7 +492,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -729,22 +717,22 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -775,7 +763,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -799,7 +787,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -823,7 +811,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -847,7 +835,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -871,7 +859,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -895,7 +883,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -919,7 +907,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -943,7 +931,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -967,7 +955,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -991,7 +979,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1016,7 +1004,7 @@
       <c r="I11" s="9"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1041,7 +1029,7 @@
       <c r="I12" s="16"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1067,7 +1055,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1093,7 +1081,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1119,7 +1107,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1145,7 +1133,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1171,7 +1159,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1197,7 +1185,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1223,7 +1211,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1257,7 +1245,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1290,7 +1278,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1322,7 +1310,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1354,7 +1342,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1386,7 +1374,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1417,7 +1405,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1449,7 +1437,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1481,7 +1469,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1513,7 +1501,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1547,7 +1535,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1581,7 +1569,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1609,7 +1597,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1635,7 +1623,7 @@
       <c r="I32" s="11"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1659,7 +1647,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1683,7 +1671,7 @@
       </c>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1706,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1729,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1781,7 +1769,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1812,7 +1800,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1841,7 +1829,7 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1870,7 +1858,7 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1899,7 +1887,7 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1928,7 +1916,7 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1957,7 +1945,7 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1983,7 +1971,7 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2012,7 +2000,7 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2041,7 +2029,7 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2070,7 +2058,7 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2098,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2126,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2149,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2172,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2195,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2218,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2251,31 +2239,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2325,7 +2313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2351,7 +2339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2377,7 +2365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2403,7 +2391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2429,7 +2417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2455,7 +2443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2481,7 +2469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2507,7 +2495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2533,7 +2521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2559,7 +2547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2585,7 +2573,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2611,7 +2599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2637,7 +2625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2663,7 +2651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2689,7 +2677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2715,7 +2703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2741,7 +2729,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2767,7 +2755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2793,7 +2781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2819,7 +2807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2845,7 +2833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2871,7 +2859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2897,7 +2885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2923,7 +2911,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2949,7 +2937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2975,7 +2963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3001,7 +2989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3027,7 +3015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3053,7 +3041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3079,7 +3067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3105,7 +3093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3131,7 +3119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3157,7 +3145,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3183,7 +3171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3209,7 +3197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3235,7 +3223,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3261,7 +3249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3287,7 +3275,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3313,7 +3301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3339,7 +3327,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3365,7 +3353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3391,7 +3379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3425,7 +3413,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3468,7 +3456,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3511,7 +3499,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3554,7 +3542,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3597,7 +3585,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3640,7 +3628,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3683,7 +3671,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3711,7 +3699,7 @@
       <c r="I50" s="3">
         <v>250000</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="26">
         <v>50000000</v>
       </c>
       <c r="K50" s="3">
@@ -3734,7 +3722,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3777,7 +3765,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3826,7 +3814,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3869,7 +3857,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3920,7 +3908,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3948,7 +3936,7 @@
       <c r="I55" s="3">
         <v>250000</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J55" s="26">
         <v>50000000</v>
       </c>
       <c r="K55" s="3">
@@ -3962,7 +3950,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3991,7 +3979,7 @@
         <v>650000</v>
       </c>
       <c r="J56" s="3">
-        <v>56500000000</v>
+        <v>117250000000</v>
       </c>
       <c r="K56" s="3">
         <v>17</v>
@@ -4004,7 +3992,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4033,7 +4021,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>117250000000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>17</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="21"/>
@@ -4044,7 +4035,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4084,7 +4075,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4121,7 +4112,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4143,8 +4134,8 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="26">
-        <v>0</v>
+      <c r="H60" s="24">
+        <v>2000000</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -4160,7 +4151,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O62" t="s">
         <v>66</v>
       </c>
@@ -4175,19 +4166,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55713-1448-49D9-BD60-FDB1E7BDCF91}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -4208,307 +4199,307 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>2023</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>150</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>110</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>48550</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>2034</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>150</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>166</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>25920</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>2050</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>150</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>166</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>25920</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>2026</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>150</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>FORECAST($C5,E$2:E$4,$C$2:$C$4)</f>
         <v>128.7341772151899</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>FORECAST($C5,F$2:F$4,$C$2:$C$4)</f>
         <v>40979.385171790142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>2028</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>150</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" ref="E6:F8" si="0">FORECAST($C6,E$2:E$4,$C$2:$C$4)</f>
         <v>132.58227848101251</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <f t="shared" si="0"/>
         <v>39424.339963833569</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>2030</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>150</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>136.43037974683511</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <f t="shared" si="0"/>
         <v>37869.294755876996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>2040</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>150</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>155.67088607594906</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <f t="shared" si="0"/>
         <v>30094.068716093898</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>2023</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>100</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>10</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>46430</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>2034</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>100</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>20</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>42000</v>
       </c>
       <c r="I10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>2050</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>100</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>20</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>37420</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>2026</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>100</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f>FORECAST($C12,E$9:E$11,$C$9:$C$11)</f>
         <v>13.345388788426703</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <f>FORECAST($C12,F$9:F$11,$C$9:$C$11)</f>
         <v>45142.622061482864</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>2028</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>100</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f t="shared" ref="E13:F15" si="1">FORECAST($C13,E$9:E$11,$C$9:$C$11)</f>
         <v>14.032549728752201</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <f t="shared" si="1"/>
         <v>44482.079566003638</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>2030</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>100</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f t="shared" si="1"/>
         <v>14.719710669077699</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f t="shared" si="1"/>
         <v>43821.537070524413</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>2040</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>100</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <f t="shared" si="1"/>
         <v>18.155515370705189</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <f t="shared" si="1"/>
         <v>40518.824593128404</v>
       </c>
@@ -4527,14 +4518,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -4542,74 +4533,58 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4850,32 +4825,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d2ad661-40b4-4211-810e-9f8311f21e61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4892,4 +4859,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F09BEA-AF68-4060-8C78-FF3F1F123D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonamar\Documents\04_Papers\Paper IV\Invest_capacity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFE2030-2E27-40C7-BB93-12FB8D99A0E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE525C-3D91-4FCC-9100-8FA271B16203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30696" windowHeight="15996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mgsZk5PiUtOKDBIY/SuWxB5nEitHw=="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="85">
   <si>
     <t>Oslo</t>
   </si>
@@ -277,6 +288,12 @@
   </si>
   <si>
     <t>the blue values are interpolated</t>
+  </si>
+  <si>
+    <t>We assign half of total cost of Nord-Norgebanen to our freight model (rest is a "passenger transport" investment)</t>
+  </si>
+  <si>
+    <t>From that, we assign half to each of the two stretches</t>
   </si>
 </sst>
 </file>
@@ -287,11 +304,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +446,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -461,41 +491,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2239,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,7 +2285,7 @@
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
@@ -3979,14 +4011,17 @@
         <v>650000</v>
       </c>
       <c r="J56" s="3">
-        <v>117250000000</v>
+        <f>117250000000/2</f>
+        <v>58625000000</v>
       </c>
       <c r="K56" s="3">
         <v>17</v>
       </c>
       <c r="L56" s="3"/>
       <c r="N56" s="21"/>
-      <c r="O56" s="18"/>
+      <c r="O56" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -4018,10 +4053,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="J57" s="3">
-        <v>117250000000</v>
+        <f>117250000000/2</f>
+        <v>58625000000</v>
       </c>
       <c r="K57" s="3">
         <v>17</v>
@@ -4029,7 +4065,9 @@
       <c r="L57" s="3"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
-      <c r="O57" s="18"/>
+      <c r="O57" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -4585,6 +4623,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80174008b946241598c9c4dc1e838b4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83c7d99240e58c9b66f78776c092749e" ns3:_="" ns4:_="">
     <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
@@ -4825,15 +4872,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4843,6 +4881,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A60908BF-6965-4963-8A59-4F703B835956}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4857,14 +4903,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153AE8AE-6581-44C9-9194-962A53477112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/capacities_and_investments.xlsx
+++ b/Data/capacities_and_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE525C-3D91-4FCC-9100-8FA271B16203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0FBE525C-3D91-4FCC-9100-8FA271B16203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30634005-F9FC-4307-AC4B-74E88099EDDE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_capacities" sheetId="9" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,6 +528,10 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,26 +749,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD0C314-BCF2-4271-977A-4A8103B5257B}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -795,7 +799,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -819,7 +823,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -843,7 +847,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -867,7 +871,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -891,7 +895,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -915,7 +919,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -939,7 +943,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -963,7 +967,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -987,7 +991,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1011,7 +1015,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="I11" s="9"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1061,7 +1065,7 @@
       <c r="I12" s="16"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1087,7 +1091,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1113,7 +1117,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1139,7 +1143,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1165,7 +1169,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1191,7 +1195,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1217,7 +1221,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -1243,7 +1247,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1277,7 +1281,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1342,7 +1346,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1437,7 +1441,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1469,7 +1473,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1501,7 +1505,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1533,7 +1537,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1567,7 +1571,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1601,7 +1605,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1629,7 +1633,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1655,7 +1659,7 @@
       <c r="I32" s="11"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>21</v>
       </c>
@@ -1679,7 +1683,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1703,7 +1707,7 @@
       </c>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>23</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1801,7 +1805,7 @@
       </c>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1861,7 +1865,7 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1890,7 +1894,7 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1948,7 +1952,7 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1977,7 +1981,7 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2003,7 +2007,7 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -2061,7 +2065,7 @@
       </c>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2090,7 +2094,7 @@
       </c>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>25</v>
       </c>
@@ -2271,31 +2275,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0D60D-EDFF-4BF0-A9C8-7E20F58C5774}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3445,7 +3449,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3531,7 +3535,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3574,7 +3578,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3617,7 +3621,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3660,7 +3664,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3703,7 +3707,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -3740,7 +3744,7 @@
       <c r="L50" s="3">
         <v>1</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="32">
         <v>1100000000</v>
       </c>
       <c r="N50" s="3">
@@ -3754,7 +3758,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="L51" s="3"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="33"/>
       <c r="N51" s="21"/>
       <c r="O51" s="17"/>
       <c r="P51" s="3"/>
@@ -3797,7 +3801,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="L52" s="3">
         <v>1</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M52" s="32">
         <v>4050000000</v>
       </c>
       <c r="N52" s="3">
@@ -3846,7 +3850,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="3"/>
-      <c r="M53" s="21"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="21"/>
       <c r="O53" s="17"/>
       <c r="P53" s="3"/>
@@ -3889,7 +3893,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -3926,7 +3930,7 @@
       <c r="L54" s="3">
         <v>1</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M54" s="32">
         <v>7000000000</v>
       </c>
       <c r="N54" s="3">
@@ -3940,7 +3944,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
@@ -3982,7 +3986,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -4027,7 +4031,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11</v>
       </c>
@@ -4073,7 +4077,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -4113,7 +4117,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -4150,7 +4154,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4189,7 +4193,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
         <v>66</v>
       </c>
@@ -4208,15 +4212,15 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -4237,7 +4241,7 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>25920</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>40979.385171790142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>39424.339963833569</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>13</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>37869.294755876996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>13</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>30094.068716093898</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>46430</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
@@ -4476,7 +4480,7 @@
         <v>45142.622061482864</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>44482.079566003638</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>43821.537070524413</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>13</v>
       </c>
@@ -4556,14 +4560,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
@@ -4571,47 +4575,47 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>57</v>
       </c>
